--- a/ampl/experiments/sol/shock/output/gladlab-knitro-aus.xlsx
+++ b/ampl/experiments/sol/shock/output/gladlab-knitro-aus.xlsx
@@ -304,43 +304,43 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.98780149146638574</v>
       </c>
       <c r="E2" t="n">
-        <v>14.66091253195856</v>
+        <v>14.660912537173454</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7324151608270779</v>
+        <v>1.7324151586003318</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6492646936579254</v>
+        <v>3.6492646946824521</v>
       </c>
       <c r="H2" t="n">
-        <v>5.0698861804067876</v>
+        <v>5.0698861805406583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0064786539536614285</v>
+        <v>0.018907809620157322</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45482279804450088</v>
+        <v>0.45482279818712901</v>
       </c>
       <c r="L2" t="n">
-        <v>0.41058144875178765</v>
+        <v>0.41058144899392141</v>
       </c>
       <c r="M2" t="n">
-        <v>3.7577877956601329</v>
+        <v>3.7577877973212863</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3114303082543124</v>
+        <v>1.3114303087342958</v>
       </c>
       <c r="O2" t="n">
-        <v>8.1454542821391325</v>
+        <v>8.1454542845748339</v>
       </c>
       <c r="P2" t="n">
-        <v>0.086698121628637298</v>
+        <v>0.086416237070888774</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -357,43 +357,43 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2.1416826712643342</v>
       </c>
       <c r="E3" t="n">
-        <v>24.207545648152426</v>
+        <v>24.207545650327667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00056364180543905782</v>
+        <v>0.00056364179310437268</v>
       </c>
       <c r="G3" t="n">
-        <v>14.680176169162573</v>
+        <v>14.680176158003951</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8524945020337942</v>
+        <v>5.852494506490344</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2271151579087434</v>
+        <v>0.039890356518659194</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>0.60154182991511762</v>
+        <v>0.60154182998524319</v>
       </c>
       <c r="L3" t="n">
-        <v>0.38147402848920214</v>
+        <v>0.38147402856174001</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1843532198037003</v>
+        <v>9.1843532208417393</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2798097275422999</v>
+        <v>2.2798097277315241</v>
       </c>
       <c r="O3" t="n">
-        <v>10.041872609910438</v>
+        <v>10.041872610553641</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.025926942975804904</v>
+        <v>0.080321775947598484</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -410,43 +410,43 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.9270063754556996</v>
       </c>
       <c r="E4" t="n">
-        <v>42.989603380265237</v>
+        <v>42.989603387428168</v>
       </c>
       <c r="F4" t="n">
-        <v>16.471208974252228</v>
+        <v>16.471208961714126</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4949417748205924</v>
+        <v>8.4949417759130785</v>
       </c>
       <c r="H4" t="n">
-        <v>14.273151779175524</v>
+        <v>14.273151783586014</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0081977602568823</v>
+        <v>0.042133427587366531</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>0.75224987387231446</v>
+        <v>0.75224987397073373</v>
       </c>
       <c r="L4" t="n">
-        <v>2.1215007076168328</v>
+        <v>2.1215007081255886</v>
       </c>
       <c r="M4" t="n">
-        <v>3.9046320000590087</v>
+        <v>3.9046320008773159</v>
       </c>
       <c r="N4" t="n">
-        <v>8.1147073014661633</v>
+        <v>8.1147073028933718</v>
       </c>
       <c r="O4" t="n">
-        <v>25.442028657545126</v>
+        <v>25.44202866130582</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00022656655125471992</v>
+        <v>0.083737103977004415</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -463,43 +463,43 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.2897997662743876</v>
       </c>
       <c r="E5" t="n">
-        <v>20.909824673187781</v>
+        <v>20.909824682630049</v>
       </c>
       <c r="F5" t="n">
-        <v>6.2129927631771187</v>
+        <v>6.2129927566112739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24674707496885856</v>
+        <v>0.24674707506152266</v>
       </c>
       <c r="H5" t="n">
-        <v>4.969611878862211</v>
+        <v>4.969611879102156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3241559745441096</v>
+        <v>0.026636880025405221</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>0.72622754157169001</v>
+        <v>0.72622754181696458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.68047974324278493</v>
+        <v>0.68047974373533582</v>
       </c>
       <c r="M5" t="n">
-        <v>4.3949521695382945</v>
+        <v>4.39495217200475</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2955390598240371</v>
+        <v>2.2955390609242636</v>
       </c>
       <c r="O5" t="n">
-        <v>11.973799135366892</v>
+        <v>11.973799139984578</v>
       </c>
       <c r="P5" t="n">
-        <v>0.075890667312856028</v>
+        <v>0.081706501664269127</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
@@ -516,43 +516,43 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.73584764303247552</v>
       </c>
       <c r="E6" t="n">
-        <v>21.405854272833146</v>
+        <v>21.405854295640111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.50537694957672386</v>
+        <v>0.50537694882766715</v>
       </c>
       <c r="G6" t="n">
-        <v>0.20658498924058838</v>
+        <v>0.20658498943624798</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4348761928279217</v>
+        <v>5.4348761925033484</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.30077841653709902</v>
+        <v>-0.049773971441656163</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>0.40714666068460781</v>
+        <v>0.40714666096092444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6965070693103862</v>
+        <v>0.69650707038725812</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5410323733551845</v>
+        <v>2.5410323767604721</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4037206180588941</v>
+        <v>3.4037206220253871</v>
       </c>
       <c r="O6" t="n">
-        <v>13.25718295958881</v>
+        <v>13.257182972076359</v>
       </c>
       <c r="P6" t="n">
-        <v>0.067759369039508091</v>
+        <v>0.065786142748462201</v>
       </c>
       <c r="Q6" t="s">
         <v>19</v>
@@ -569,43 +569,43 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>1.1222705926282621</v>
       </c>
       <c r="E7" t="n">
-        <v>19.252429798174767</v>
+        <v>19.252429804118989</v>
       </c>
       <c r="F7" t="n">
-        <v>4.0694091336346698</v>
+        <v>4.0694091294027857</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2019943371912438</v>
+        <v>4.2019943382414313</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4719359424727054</v>
+        <v>4.4719359428585026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.14916427381472253</v>
+        <v>0.02396363285726542</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="n">
-        <v>0.81536889236941634</v>
+        <v>0.81536889257670431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.59620939097267878</v>
+        <v>0.59620939127400729</v>
       </c>
       <c r="M7" t="n">
-        <v>2.7295847226882657</v>
+        <v>2.7295847237356328</v>
       </c>
       <c r="N7" t="n">
-        <v>5.502927750731792</v>
+        <v>5.502927752504017</v>
       </c>
       <c r="O7" t="n">
-        <v>8.9931811990778616</v>
+        <v>8.9931812014262622</v>
       </c>
       <c r="P7" t="n">
-        <v>0.080231150513882146</v>
+        <v>0.086172670583953878</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
@@ -622,43 +622,43 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.4853415601969437</v>
       </c>
       <c r="E8" t="n">
-        <v>18.881398160743775</v>
+        <v>18.881398161075598</v>
       </c>
       <c r="F8" t="n">
-        <v>10.313053573153859</v>
+        <v>10.313053565622875</v>
       </c>
       <c r="G8" t="n">
-        <v>1.1940496342800895</v>
+        <v>1.1940496342515456</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2794622577563168</v>
+        <v>1.2794622586562681</v>
       </c>
       <c r="I8" t="n">
-        <v>0.54361068549713698</v>
+        <v>0.039229445123799334</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>0.63025306972836692</v>
+        <v>0.63025306977301465</v>
       </c>
       <c r="L8" t="n">
-        <v>0.60879935008323238</v>
+        <v>0.60879935006980557</v>
       </c>
       <c r="M8" t="n">
-        <v>2.6058528446250757</v>
+        <v>2.6058528446819889</v>
       </c>
       <c r="N8" t="n">
-        <v>6.9662707162801123</v>
+        <v>6.9662707163125717</v>
       </c>
       <c r="O8" t="n">
-        <v>7.3307876136556818</v>
+        <v>7.3307876138550041</v>
       </c>
       <c r="P8" t="n">
-        <v>0.048043054352455421</v>
+        <v>0.080487341442447125</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
@@ -675,43 +675,43 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.91858666426692437</v>
       </c>
       <c r="E9" t="n">
-        <v>17.413291214062223</v>
+        <v>17.413291216542014</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2290308584403338</v>
+        <v>8.2290308550425539</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1293592679989088</v>
+        <v>3.1293592684123479</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6046981282967998</v>
+        <v>4.6046981300482717</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.057033887773511593</v>
+        <v>0.026540171297507156</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>0.61561261745565987</v>
+        <v>0.6156126174426404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.63734711902668761</v>
+        <v>0.63734711922575726</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7149797216984086</v>
+        <v>1.7149797220019276</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5905061142958239</v>
+        <v>5.5905061153139126</v>
       </c>
       <c r="O9" t="n">
-        <v>8.3178918236218085</v>
+        <v>8.3178918244638123</v>
       </c>
       <c r="P9" t="n">
-        <v>0.078646184566164554</v>
+        <v>0.074993322452768366</v>
       </c>
       <c r="Q9" t="s">
         <v>19</v>
@@ -728,43 +728,43 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>1.7371800868629332</v>
       </c>
       <c r="E10" t="n">
-        <v>24.763790518569653</v>
+        <v>24.763790520873069</v>
       </c>
       <c r="F10" t="n">
-        <v>7.4481251987663235</v>
+        <v>7.4481251926082006</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4861910864989785</v>
+        <v>4.4861910867181249</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6333590083109728</v>
+        <v>7.6333590095239643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.80147201749286445</v>
+        <v>0.037009363567055309</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>0.68346862976667733</v>
+        <v>0.68346862984933887</v>
       </c>
       <c r="L10" t="n">
-        <v>0.89024091503546232</v>
+        <v>0.89024091515210024</v>
       </c>
       <c r="M10" t="n">
-        <v>4.0021014000794164</v>
+        <v>4.0021014005448308</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2717928618717718</v>
+        <v>5.2717928623254444</v>
       </c>
       <c r="O10" t="n">
-        <v>12.714530395084084</v>
+        <v>12.714530396146229</v>
       </c>
       <c r="P10" t="n">
-        <v>0.033994680884255779</v>
+        <v>0.082416115477110946</v>
       </c>
       <c r="Q10" t="s">
         <v>19</v>
@@ -781,43 +781,43 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>1.1283265822212649</v>
       </c>
       <c r="E11" t="n">
-        <v>19.076223062492268</v>
+        <v>19.076223067355201</v>
       </c>
       <c r="F11" t="n">
-        <v>4.9368365125041018</v>
+        <v>4.9368365076670395</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3528463591650237</v>
+        <v>1.3528463594228688</v>
       </c>
       <c r="H11" t="n">
-        <v>8.0388478746088552</v>
+        <v>8.0388478752184014</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15698685252818989</v>
+        <v>0.025400686404910704</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.73741035972556856</v>
+        <v>0.73741035989708048</v>
       </c>
       <c r="L11" t="n">
-        <v>0.62008428093117018</v>
+        <v>0.62008428117423808</v>
       </c>
       <c r="M11" t="n">
-        <v>3.3950441465954033</v>
+        <v>3.3950441476709878</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1271387998194049</v>
+        <v>3.1271388006337122</v>
       </c>
       <c r="O11" t="n">
-        <v>10.550251732231846</v>
+        <v>10.550251734571249</v>
       </c>
       <c r="P11" t="n">
-        <v>0.081856067859833348</v>
+        <v>0.085178906090806208</v>
       </c>
       <c r="Q11" t="s">
         <v>19</v>
@@ -834,43 +834,43 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3.4569783509828937</v>
       </c>
       <c r="E12" t="n">
-        <v>34.199180813655637</v>
+        <v>34.199180810871319</v>
       </c>
       <c r="F12" t="n">
-        <v>16.146986229500929</v>
+        <v>16.146986219946616</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2417097264579524</v>
+        <v>1.2417097263204468</v>
       </c>
       <c r="H12" t="n">
-        <v>9.9863172258185262</v>
+        <v>9.9863172272574108</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6324634406423288</v>
+        <v>0.050762564366899098</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>0.73931815683952151</v>
+        <v>0.73931815683253088</v>
       </c>
       <c r="L12" t="n">
-        <v>0.77777123958308048</v>
+        <v>0.7777712394201084</v>
       </c>
       <c r="M12" t="n">
-        <v>10.27881943821175</v>
+        <v>10.278819437165479</v>
       </c>
       <c r="N12" t="n">
-        <v>6.7919509089325727</v>
+        <v>6.7919509082572826</v>
       </c>
       <c r="O12" t="n">
-        <v>12.98131608903099</v>
+        <v>12.981316088389653</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.088133293886365954</v>
+        <v>0.08448777207135115</v>
       </c>
       <c r="Q12" t="s">
         <v>19</v>
@@ -887,43 +887,43 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>7.7849997382237861</v>
       </c>
       <c r="E13" t="n">
-        <v>73.854678318317411</v>
+        <v>73.854678304360661</v>
       </c>
       <c r="F13" t="n">
-        <v>53.897298561943607</v>
+        <v>53.897298540312356</v>
       </c>
       <c r="G13" t="n">
-        <v>2.198140368505979</v>
+        <v>2.1981403680663045</v>
       </c>
       <c r="H13" t="n">
-        <v>10.125794061895668</v>
+        <v>10.125794064752258</v>
       </c>
       <c r="I13" t="n">
-        <v>7.3533659992389229</v>
+        <v>0.073007870243398568</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="n">
-        <v>0.79543671636635238</v>
+        <v>0.79543671627995105</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3945974312140526</v>
+        <v>1.3945974305286404</v>
       </c>
       <c r="M13" t="n">
-        <v>30.301179548815828</v>
+        <v>30.30117954169944</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7061931752979307</v>
+        <v>5.7061931741081287</v>
       </c>
       <c r="O13" t="n">
-        <v>27.136336231422053</v>
+        <v>27.136336228283589</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.65563301090585391</v>
+        <v>0.077571960290616512</v>
       </c>
       <c r="Q13" t="s">
         <v>19</v>
@@ -940,43 +940,43 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.91107474124726295</v>
       </c>
       <c r="E14" t="n">
-        <v>19.626608961633565</v>
+        <v>19.626608970835626</v>
       </c>
       <c r="F14" t="n">
-        <v>1.2050603522345809</v>
+        <v>1.2050603507067272</v>
       </c>
       <c r="G14" t="n">
-        <v>1.1178906074815464</v>
+        <v>1.1178906079023161</v>
       </c>
       <c r="H14" t="n">
-        <v>10.46085077644531</v>
+        <v>10.46085077656763</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.075633340524221992</v>
+        <v>0.014589273116092467</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14" t="n">
-        <v>0.67188627806384582</v>
+        <v>0.67188627831390135</v>
       </c>
       <c r="L14" t="n">
-        <v>0.72690153419331904</v>
+        <v>0.72690153474889485</v>
       </c>
       <c r="M14" t="n">
-        <v>2.0433368462150092</v>
+        <v>2.0433368474200133</v>
       </c>
       <c r="N14" t="n">
-        <v>6.7545753747676844</v>
+        <v>6.754575378103616</v>
       </c>
       <c r="O14" t="n">
-        <v>8.7506917947081799</v>
+        <v>8.7506917981462298</v>
       </c>
       <c r="P14" t="n">
-        <v>0.090807031729025017</v>
+        <v>0.087490078986949799</v>
       </c>
       <c r="Q14" t="s">
         <v>19</v>
@@ -993,43 +993,43 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.82533158426690656</v>
       </c>
       <c r="E15" t="n">
-        <v>15.05340642647435</v>
+        <v>15.053406428963584</v>
       </c>
       <c r="F15" t="n">
-        <v>1.4146972858822293</v>
+        <v>1.4146972846414536</v>
       </c>
       <c r="G15" t="n">
-        <v>0.73682345767430923</v>
+        <v>0.73682345775483182</v>
       </c>
       <c r="H15" t="n">
-        <v>7.8045383656180789</v>
+        <v>7.8045383660767067</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.16576718375349597</v>
+        <v>0.010785036851298817</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7863689599870709</v>
+        <v>0.78636896011332968</v>
       </c>
       <c r="L15" t="n">
-        <v>0.33879488830606352</v>
+        <v>0.3387948883871772</v>
       </c>
       <c r="M15" t="n">
-        <v>0.95023051090204513</v>
+        <v>0.95023051109732315</v>
       </c>
       <c r="N15" t="n">
-        <v>6.7147132764417483</v>
+        <v>6.7147132775601852</v>
       </c>
       <c r="O15" t="n">
-        <v>5.8939603730956049</v>
+        <v>5.8939603739646031</v>
       </c>
       <c r="P15" t="n">
-        <v>0.043421739581504651</v>
+        <v>0.03767992557337585</v>
       </c>
       <c r="Q15" t="s">
         <v>19</v>
@@ -1046,43 +1046,43 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>1.1740685231710086</v>
       </c>
       <c r="E16" t="n">
-        <v>21.011306448374</v>
+        <v>21.011306447002113</v>
       </c>
       <c r="F16" t="n">
-        <v>13.77919589800783</v>
+        <v>13.779195889439874</v>
       </c>
       <c r="G16" t="n">
-        <v>0.093354232730022052</v>
+        <v>0.093354232720819497</v>
       </c>
       <c r="H16" t="n">
-        <v>2.322728956518203</v>
+        <v>2.3227289571063681</v>
       </c>
       <c r="I16" t="n">
-        <v>0.21491280041443095</v>
+        <v>0.034788664994105663</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16" t="n">
-        <v>0.81584575125392378</v>
+        <v>0.81584575125938164</v>
       </c>
       <c r="L16" t="n">
-        <v>0.69491381423226162</v>
+        <v>0.69491381410177555</v>
       </c>
       <c r="M16" t="n">
-        <v>1.8236715704670736</v>
+        <v>1.8236715703182034</v>
       </c>
       <c r="N16" t="n">
-        <v>9.2899667874674652</v>
+        <v>9.2899667866935669</v>
       </c>
       <c r="O16" t="n">
-        <v>7.637001220494068</v>
+        <v>7.6370012202291484</v>
       </c>
       <c r="P16" t="n">
-        <v>0.070622564086189998</v>
+        <v>0.080904195467727216</v>
       </c>
       <c r="Q16" t="s">
         <v>19</v>
@@ -1099,43 +1099,43 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.75938688622005834</v>
       </c>
       <c r="E17" t="n">
-        <v>15.912332643268456</v>
+        <v>15.912332642138056</v>
       </c>
       <c r="F17" t="n">
-        <v>9.5420351865489597</v>
+        <v>9.5420351810413369</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8934242091456932</v>
+        <v>2.8934242088715521</v>
       </c>
       <c r="H17" t="n">
-        <v>1.5258906282244513</v>
+        <v>1.5258906284868508</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.24506979580792165</v>
+        <v>-0.0058687903999945223</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7093922951674928</v>
+        <v>0.70939229515955027</v>
       </c>
       <c r="L17" t="n">
-        <v>0.39101442479165938</v>
+        <v>0.39101442471048231</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0606128613201273</v>
+        <v>1.0606128612259269</v>
       </c>
       <c r="N17" t="n">
-        <v>8.2521106696077364</v>
+        <v>8.2521106688979078</v>
       </c>
       <c r="O17" t="n">
-        <v>4.9998676007888667</v>
+        <v>4.9998676006042944</v>
       </c>
       <c r="P17" t="n">
-        <v>0.093791021519910728</v>
+        <v>0.081150659246483986</v>
       </c>
       <c r="Q17" t="s">
         <v>19</v>
@@ -1152,43 +1152,43 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.138029351215528</v>
       </c>
       <c r="E18" t="n">
-        <v>18.453738838542247</v>
+        <v>18.453738835294576</v>
       </c>
       <c r="F18" t="n">
-        <v>15.450278908142916</v>
+        <v>15.450278901681026</v>
       </c>
       <c r="G18" t="n">
-        <v>0.11984483840434187</v>
+        <v>0.11984483838169332</v>
       </c>
       <c r="H18" t="n">
-        <v>1.2657860199519242</v>
+        <v>1.2657860201084035</v>
       </c>
       <c r="I18" t="n">
-        <v>0.17855137524465681</v>
+        <v>0.035607186654301071</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>0.72272069460644739</v>
+        <v>0.72272069453525911</v>
       </c>
       <c r="L18" t="n">
-        <v>0.53839033878774789</v>
+        <v>0.5383903385545239</v>
       </c>
       <c r="M18" t="n">
-        <v>1.4099348508934491</v>
+        <v>1.4099348505832192</v>
       </c>
       <c r="N18" t="n">
-        <v>9.8670400737451285</v>
+        <v>9.8670400718170477</v>
       </c>
       <c r="O18" t="n">
-        <v>5.253483912923719</v>
+        <v>5.2534839123367236</v>
       </c>
       <c r="P18" t="n">
-        <v>0.070720134848093794</v>
+        <v>0.081239184841758516</v>
       </c>
       <c r="Q18" t="s">
         <v>19</v>
@@ -1205,43 +1205,43 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.73597275822383468</v>
       </c>
       <c r="E19" t="n">
-        <v>11.873600173007999</v>
+        <v>11.873600173041554</v>
       </c>
       <c r="F19" t="n">
-        <v>5.4527823474148267</v>
+        <v>5.4527823433161666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.93756182376067088</v>
+        <v>0.93756182372323293</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1029072002070612</v>
+        <v>3.1029072004941471</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3005766167287508</v>
+        <v>-0.049661314966331263</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="n">
-        <v>0.64365349999619026</v>
+        <v>0.6436535000417436</v>
       </c>
       <c r="L19" t="n">
-        <v>0.33608853436480035</v>
+        <v>0.33608853435910657</v>
       </c>
       <c r="M19" t="n">
-        <v>1.4236232344712292</v>
+        <v>1.4236232344762294</v>
       </c>
       <c r="N19" t="n">
-        <v>2.185661719128837</v>
+        <v>2.1856617190989969</v>
       </c>
       <c r="O19" t="n">
-        <v>7.1499839578627356</v>
+        <v>7.1499839579172271</v>
       </c>
       <c r="P19" t="n">
-        <v>0.071853073882531177</v>
+        <v>0.066934738725752854</v>
       </c>
       <c r="Q19" t="s">
         <v>19</v>
@@ -1258,43 +1258,43 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.93772700798247066</v>
       </c>
       <c r="E20" t="n">
-        <v>14.181030975240873</v>
+        <v>14.18103097502039</v>
       </c>
       <c r="F20" t="n">
-        <v>6.0843304172711186</v>
+        <v>6.084330413018451</v>
       </c>
       <c r="G20" t="n">
-        <v>0.20720726434308057</v>
+        <v>0.2072072643314532</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9489909454803631</v>
+        <v>3.9489909462288093</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.035251046831277999</v>
+        <v>0.028816429771367127</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>0.65977703375580832</v>
+        <v>0.65977703378834096</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3874033315826278</v>
+        <v>0.38740333155755263</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4804917294375615</v>
+        <v>1.480491729408955</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4872311096382038</v>
+        <v>4.4872311094978379</v>
       </c>
       <c r="O20" t="n">
-        <v>6.8249303230495952</v>
+        <v>6.8249303230248621</v>
       </c>
       <c r="P20" t="n">
-        <v>0.052147686128901451</v>
+        <v>0.050191023632066033</v>
       </c>
       <c r="Q20" t="s">
         <v>19</v>
@@ -1311,46 +1311,46 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0064786539536614</v>
+        <v>1.0064786540095396</v>
       </c>
       <c r="E21" t="n">
-        <v>14.798922796138944</v>
+        <v>14.546442448627033</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8062138470746594</v>
+        <v>1.7767805206973564</v>
       </c>
       <c r="G21" t="n">
-        <v>3.691472618239787</v>
+        <v>3.6266722101137869</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1543014378375158</v>
+        <v>5.2165718326217272</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01634155838698776</v>
+        <v>0.0099066588729423387</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0094134839069220533</v>
+        <v>-0.007807841991838929</v>
       </c>
       <c r="K21" t="n">
-        <v>0.45278129105076897</v>
+        <v>0.45284609432399758</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4122537110580084</v>
+        <v>0.3997082080832966</v>
       </c>
       <c r="M21" t="n">
-        <v>3.7845674583284725</v>
+        <v>3.7044914407493641</v>
       </c>
       <c r="N21" t="n">
-        <v>1.3282384576568769</v>
+        <v>1.3000897112278864</v>
       </c>
       <c r="O21" t="n">
-        <v>8.232735476001773</v>
+        <v>8.1191707141520286</v>
       </c>
       <c r="P21" t="n">
-        <v>0.084876654555202991</v>
+        <v>0.086585010270477256</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.0472336787097547</v>
+        <v>1.0683118845831308</v>
       </c>
     </row>
     <row r="22">
@@ -1364,46 +1364,46 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2271151579087434</v>
+        <v>2.2271151565709029</v>
       </c>
       <c r="E22" t="n">
-        <v>24.741018547307686</v>
+        <v>24.258943930713251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00099422180446881361</v>
+        <v>0.0016639437931370094</v>
       </c>
       <c r="G22" t="n">
-        <v>15.328942597439303</v>
+        <v>15.328354039755174</v>
       </c>
       <c r="H22" t="n">
-        <v>5.8744847853085229</v>
+        <v>5.7767475702381015</v>
       </c>
       <c r="I22" t="n">
-        <v>0.029761864902953915</v>
+        <v>0.016089812357351255</v>
       </c>
       <c r="J22" t="n">
-        <v>0.022037463314500703</v>
+        <v>0.0021232338514618563</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6007055724016751</v>
+        <v>0.59687352607951083</v>
       </c>
       <c r="L22" t="n">
-        <v>0.38520162369538435</v>
+        <v>0.36800162682758314</v>
       </c>
       <c r="M22" t="n">
-        <v>9.3450362294749372</v>
+        <v>9.1165873838026901</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3440208949553401</v>
+        <v>2.2904908628975735</v>
       </c>
       <c r="O22" t="n">
-        <v>10.295190551598029</v>
+        <v>10.162364115855894</v>
       </c>
       <c r="P22" t="n">
-        <v>0.079196876851911568</v>
+        <v>0.081223922976491225</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.0356050556498648</v>
+        <v>1.0621113935138458</v>
       </c>
     </row>
     <row r="23">
@@ -1417,46 +1417,46 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0081977602568823</v>
+        <v>1.5061483192772669</v>
       </c>
       <c r="E23" t="n">
-        <v>43.605806337192412</v>
+        <v>33.901131637326507</v>
       </c>
       <c r="F23" t="n">
-        <v>17.004012523289209</v>
+        <v>13.788115871355053</v>
       </c>
       <c r="G23" t="n">
-        <v>8.6294988724660868</v>
+        <v>5.2049383134492011</v>
       </c>
       <c r="H23" t="n">
-        <v>14.424314930295349</v>
+        <v>12.113680314463735</v>
       </c>
       <c r="I23" t="n">
-        <v>0.033150626111850608</v>
+        <v>0.36436894928360847</v>
       </c>
       <c r="J23" t="n">
-        <v>0.014333766968644532</v>
+        <v>-0.21141092343176823</v>
       </c>
       <c r="K23" t="n">
-        <v>0.75187439806600997</v>
+        <v>0.75602065471061775</v>
       </c>
       <c r="L23" t="n">
-        <v>2.1468753798392197</v>
+        <v>2.0423582856998888</v>
       </c>
       <c r="M23" t="n">
-        <v>3.9331318797232293</v>
+        <v>3.0353346577763269</v>
       </c>
       <c r="N23" t="n">
-        <v>8.2623381105635048</v>
+        <v>6.3673093547513018</v>
       </c>
       <c r="O23" t="n">
-        <v>25.822375072513847</v>
+        <v>20.18581455791486</v>
       </c>
       <c r="P23" t="n">
-        <v>0.082555009847239402</v>
+        <v>0.056475154663968408</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.0247494110664761</v>
+        <v>0.70102204048371608</v>
       </c>
     </row>
     <row r="24">
@@ -1470,46 +1470,46 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3241559745441096</v>
+        <v>1.3241560079054342</v>
       </c>
       <c r="E24" t="n">
-        <v>21.188484217737873</v>
+        <v>19.816119508957858</v>
       </c>
       <c r="F24" t="n">
-        <v>6.4374106084215121</v>
+        <v>6.6509064463068572</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25058305230689187</v>
+        <v>0.23533614744674719</v>
       </c>
       <c r="H24" t="n">
-        <v>5.04825830269872</v>
+        <v>4.4750456579245732</v>
       </c>
       <c r="I24" t="n">
-        <v>0.021429124897131623</v>
+        <v>-0.036164438324797633</v>
       </c>
       <c r="J24" t="n">
-        <v>0.013326727933181123</v>
+        <v>-0.052305803146247346</v>
       </c>
       <c r="K24" t="n">
-        <v>0.72467139798649305</v>
+        <v>0.70040442699823546</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6864392955969939</v>
+        <v>0.61511101164087267</v>
       </c>
       <c r="M24" t="n">
-        <v>4.4394638431632352</v>
+        <v>4.0849711788304948</v>
       </c>
       <c r="N24" t="n">
-        <v>2.3348337920783067</v>
+        <v>2.1662175067493794</v>
       </c>
       <c r="O24" t="n">
-        <v>12.146715220408371</v>
+        <v>11.478198248225137</v>
       </c>
       <c r="P24" t="n">
-        <v>0.080296230552866749</v>
+        <v>0.081988569374928322</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.037527913570814</v>
+        <v>1.0593950508736727</v>
       </c>
     </row>
     <row r="25">
@@ -1523,46 +1523,46 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.69922158346290098</v>
+        <v>0.69922158346276708</v>
       </c>
       <c r="E25" t="n">
-        <v>21.142959977048843</v>
+        <v>19.771461985950115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.52143970634743497</v>
+        <v>0.52511414221198571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.20441079645119686</v>
+        <v>0.19146870888955736</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5040248003727132</v>
+        <v>5.3957643591489681</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.049736103307644733</v>
+        <v>-0.04976448975896576</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.012281420420485183</v>
+        <v>-0.076352585003948439</v>
       </c>
       <c r="K25" t="n">
-        <v>0.40301468655408823</v>
+        <v>0.39279443867524044</v>
       </c>
       <c r="L25" t="n">
-        <v>0.68815200132290144</v>
+        <v>0.6218599899774836</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5349548568757148</v>
+        <v>2.3298852233424139</v>
       </c>
       <c r="N25" t="n">
-        <v>3.360040362701445</v>
+        <v>3.1087208209625441</v>
       </c>
       <c r="O25" t="n">
-        <v>13.093348782243758</v>
+        <v>12.352202517935075</v>
       </c>
       <c r="P25" t="n">
-        <v>0.069399728571589006</v>
+        <v>0.06572100391428512</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.1951758653929812</v>
+        <v>1.1318222616981741</v>
       </c>
     </row>
     <row r="26">
@@ -1576,46 +1576,46 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>1.1491642738147225</v>
+        <v>1.1491642730765115</v>
       </c>
       <c r="E26" t="n">
-        <v>19.417077932179836</v>
+        <v>18.924074991316608</v>
       </c>
       <c r="F26" t="n">
-        <v>4.2098592131636474</v>
+        <v>4.2406706182007037</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2447548067506835</v>
+        <v>4.1424886835170565</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5347713744951994</v>
+        <v>4.498814080229435</v>
       </c>
       <c r="I26" t="n">
-        <v>0.020446147769187285</v>
+        <v>0.0060870520002587903</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0085520703480596177</v>
+        <v>-0.017055240099207149</v>
       </c>
       <c r="K26" t="n">
-        <v>0.81286253312081591</v>
+        <v>0.80482657058064833</v>
       </c>
       <c r="L26" t="n">
-        <v>0.60023537101634383</v>
+        <v>0.57163929248942469</v>
       </c>
       <c r="M26" t="n">
-        <v>2.7428270581413008</v>
+        <v>2.6565475302241439</v>
       </c>
       <c r="N26" t="n">
-        <v>5.565629309467206</v>
+        <v>5.4035593631533976</v>
       </c>
       <c r="O26" t="n">
-        <v>9.0740394855454447</v>
+        <v>8.8932689046713111</v>
       </c>
       <c r="P26" t="n">
-        <v>0.084721316985684275</v>
+        <v>0.086337759702966185</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.0414582523455014</v>
+        <v>1.061328783480751</v>
       </c>
     </row>
     <row r="27">
@@ -1629,46 +1629,46 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>1.543610685497137</v>
+        <v>1.5436106854227882</v>
       </c>
       <c r="E27" t="n">
-        <v>19.173160989196532</v>
+        <v>18.884326071249465</v>
       </c>
       <c r="F27" t="n">
-        <v>10.612041396582784</v>
+        <v>10.632792779704868</v>
       </c>
       <c r="G27" t="n">
-        <v>1.2142322051560872</v>
+        <v>1.1972510934573606</v>
       </c>
       <c r="H27" t="n">
-        <v>1.2939975019779837</v>
+        <v>1.2425433370557619</v>
       </c>
       <c r="I27" t="n">
-        <v>0.031832466422861895</v>
+        <v>0.019854855945927608</v>
       </c>
       <c r="J27" t="n">
-        <v>0.015452395313571643</v>
+        <v>0.00015506850440252725</v>
       </c>
       <c r="K27" t="n">
-        <v>0.63074553065982819</v>
+        <v>0.62771489204623021</v>
       </c>
       <c r="L27" t="n">
-        <v>0.619654286966004</v>
+        <v>0.59867226506189142</v>
       </c>
       <c r="M27" t="n">
-        <v>2.6313168969544876</v>
+        <v>2.5821441832374177</v>
       </c>
       <c r="N27" t="n">
-        <v>7.0989551364688248</v>
+        <v>6.9744358755658835</v>
       </c>
       <c r="O27" t="n">
-        <v>7.4398722560258417</v>
+        <v>7.362091208092103</v>
       </c>
       <c r="P27" t="n">
-        <v>0.079339558344714317</v>
+        <v>0.081021389916902692</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.020229149889696</v>
+        <v>1.0418558591006535</v>
       </c>
     </row>
     <row r="28">
@@ -1682,46 +1682,46 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.94296611222648841</v>
+        <v>0.94296611168817424</v>
       </c>
       <c r="E28" t="n">
-        <v>17.704263435514271</v>
+        <v>17.349664211895274</v>
       </c>
       <c r="F28" t="n">
-        <v>8.435779577307466</v>
+        <v>8.326710283238647</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1846449345993779</v>
+        <v>3.1200221472609617</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6464658173647697</v>
+        <v>4.5507754100622106</v>
       </c>
       <c r="I28" t="n">
-        <v>0.024577661477472555</v>
+        <v>0.015858871515605603</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01670977748405604</v>
+        <v>-0.0036539333004605577</v>
       </c>
       <c r="K28" t="n">
-        <v>0.61710002122532859</v>
+        <v>0.61581779598093489</v>
       </c>
       <c r="L28" t="n">
-        <v>0.65136255583163039</v>
+        <v>0.62525628362081553</v>
       </c>
       <c r="M28" t="n">
-        <v>1.7395791787085926</v>
+        <v>1.6963840739945302</v>
       </c>
       <c r="N28" t="n">
-        <v>5.7034967907871721</v>
+        <v>5.5646810132728408</v>
       </c>
       <c r="O28" t="n">
-        <v>8.4462974627336447</v>
+        <v>8.3186892412648064</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07385299127963342</v>
+        <v>0.074857407950080293</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.0180184703057811</v>
+        <v>1.031863741443164</v>
       </c>
     </row>
     <row r="29">
@@ -1735,46 +1735,46 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>1.8014720174928645</v>
+        <v>1.8014720162790923</v>
       </c>
       <c r="E29" t="n">
-        <v>25.140756334571833</v>
+        <v>24.562255779210158</v>
       </c>
       <c r="F29" t="n">
-        <v>7.7068104205562253</v>
+        <v>7.6677084621547325</v>
       </c>
       <c r="G29" t="n">
-        <v>4.5622437659138884</v>
+        <v>4.4589629279617498</v>
       </c>
       <c r="H29" t="n">
-        <v>7.7431055721502497</v>
+        <v>7.6178705457256575</v>
       </c>
       <c r="I29" t="n">
-        <v>0.029599683157075611</v>
+        <v>0.015465098594211999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.015222460217449506</v>
+        <v>-0.0081382832524382817</v>
       </c>
       <c r="K29" t="n">
-        <v>0.68288394533880969</v>
+        <v>0.67907512458590913</v>
       </c>
       <c r="L29" t="n">
-        <v>0.90129801702918544</v>
+        <v>0.86346525226384607</v>
       </c>
       <c r="M29" t="n">
-        <v>4.0415279077267749</v>
+        <v>3.9255945359069684</v>
       </c>
       <c r="N29" t="n">
-        <v>5.3734649709113924</v>
+        <v>5.2266275169298595</v>
       </c>
       <c r="O29" t="n">
-        <v>12.917047945812232</v>
+        <v>12.681745035593492</v>
       </c>
       <c r="P29" t="n">
-        <v>0.081138486233672341</v>
+        <v>0.083357689098145005</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.0293892820648542</v>
+        <v>1.0575439064608645</v>
       </c>
     </row>
     <row r="30">
@@ -1788,46 +1788,46 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>1.1569868525281899</v>
+        <v>1.156986851898592</v>
       </c>
       <c r="E30" t="n">
-        <v>19.308923487769686</v>
+        <v>18.780132853233518</v>
       </c>
       <c r="F30" t="n">
-        <v>5.1110925038319914</v>
+        <v>5.1230720238638048</v>
       </c>
       <c r="G30" t="n">
-        <v>1.3720670864353524</v>
+        <v>1.3359905118525925</v>
       </c>
       <c r="H30" t="n">
-        <v>8.1605695464993246</v>
+        <v>8.0081788012128179</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02121274550611809</v>
+        <v>0.0013200564650667275</v>
       </c>
       <c r="J30" t="n">
-        <v>0.012198453777517123</v>
+        <v>-0.01552142754235126</v>
       </c>
       <c r="K30" t="n">
-        <v>0.73576607627931456</v>
+        <v>0.72873530813927478</v>
       </c>
       <c r="L30" t="n">
-        <v>0.62586975808461331</v>
+        <v>0.59700669473507928</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4256848775601836</v>
+        <v>3.3094838884947366</v>
       </c>
       <c r="N30" t="n">
-        <v>3.1763352774658986</v>
+        <v>3.0757465899544951</v>
       </c>
       <c r="O30" t="n">
-        <v>10.686332292957939</v>
+        <v>10.442743963895818</v>
       </c>
       <c r="P30" t="n">
-        <v>0.083717437308015355</v>
+        <v>0.085520641392766245</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.0375753594859143</v>
+        <v>1.0599238706895104</v>
       </c>
     </row>
     <row r="31">
@@ -1841,46 +1841,46 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>3.6324634406423288</v>
+        <v>3.6324634370396396</v>
       </c>
       <c r="E31" t="n">
-        <v>35.057751648791204</v>
+        <v>34.675175107867815</v>
       </c>
       <c r="F31" t="n">
-        <v>16.803050894612475</v>
+        <v>16.962102027925024</v>
       </c>
       <c r="G31" t="n">
-        <v>1.276135526772727</v>
+        <v>1.2645421159382015</v>
       </c>
       <c r="H31" t="n">
-        <v>10.173285916795978</v>
+        <v>9.9986407423680177</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03764872011971486</v>
+        <v>0.022945873597425968</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02510501171983457</v>
+        <v>0.013918295283996584</v>
       </c>
       <c r="K31" t="n">
-        <v>0.74004475165874584</v>
+        <v>0.73596404585361319</v>
       </c>
       <c r="L31" t="n">
-        <v>0.79100376360661051</v>
+        <v>0.77078037336154126</v>
       </c>
       <c r="M31" t="n">
-        <v>10.472014378778832</v>
+        <v>10.329333293455019</v>
       </c>
       <c r="N31" t="n">
-        <v>7.0040788448001958</v>
+        <v>6.9182051042411485</v>
       </c>
       <c r="O31" t="n">
-        <v>13.333685220304341</v>
+        <v>13.237447011396331</v>
       </c>
       <c r="P31" t="n">
-        <v>0.083126535354876005</v>
+        <v>0.084701608320378527</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.0237587656784397</v>
+        <v>1.0431568400542826</v>
       </c>
     </row>
     <row r="32">
@@ -1894,46 +1894,46 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>8.3533659992389229</v>
+        <v>8.3533659889569201</v>
       </c>
       <c r="E32" t="n">
-        <v>77.032144311731344</v>
+        <v>76.454595141586196</v>
       </c>
       <c r="F32" t="n">
-        <v>56.8675111348103</v>
+        <v>57.060537198575041</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3016931937456175</v>
+        <v>2.2873478657474231</v>
       </c>
       <c r="H32" t="n">
-        <v>10.362511064895347</v>
+        <v>10.181204675026828</v>
       </c>
       <c r="I32" t="n">
-        <v>0.050215980037542449</v>
+        <v>0.035264821938086693</v>
       </c>
       <c r="J32" t="n">
-        <v>0.043023218918087934</v>
+        <v>0.035203143482814774</v>
       </c>
       <c r="K32" t="n">
-        <v>0.79805118887451698</v>
+        <v>0.79617355335672524</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4292325367194287</v>
+        <v>1.4011174994170998</v>
       </c>
       <c r="M32" t="n">
-        <v>31.388648951378634</v>
+        <v>31.096444791570427</v>
       </c>
       <c r="N32" t="n">
-        <v>6.0080861815466564</v>
+        <v>5.9555569575586356</v>
       </c>
       <c r="O32" t="n">
-        <v>28.425137389660893</v>
+        <v>28.296541046873717</v>
       </c>
       <c r="P32" t="n">
-        <v>0.076283707080449736</v>
+        <v>0.077965747608681121</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.0205475489801925</v>
+        <v>1.0430504184310185</v>
       </c>
     </row>
     <row r="33">
@@ -1947,46 +1947,46 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.92436665947577801</v>
+        <v>0.92436665947649255</v>
       </c>
       <c r="E33" t="n">
-        <v>19.692146815263346</v>
+        <v>19.084128478504898</v>
       </c>
       <c r="F33" t="n">
-        <v>1.247609608479666</v>
+        <v>1.2754450000671349</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1238845964390385</v>
+        <v>1.0924545961462806</v>
       </c>
       <c r="H33" t="n">
-        <v>10.607958579834632</v>
+        <v>10.487176525509764</v>
       </c>
       <c r="I33" t="n">
-        <v>0.013951273624223683</v>
+        <v>-0.0066974069225046616</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0033392346970327665</v>
+        <v>-0.027640051989461515</v>
       </c>
       <c r="K33" t="n">
-        <v>0.66853979525969853</v>
+        <v>0.65780738601345734</v>
       </c>
       <c r="L33" t="n">
-        <v>0.7279331348657907</v>
+        <v>0.68717212219455204</v>
       </c>
       <c r="M33" t="n">
-        <v>2.044283082077575</v>
+        <v>1.9652101091952061</v>
       </c>
       <c r="N33" t="n">
-        <v>6.7916850997820797</v>
+        <v>6.5562510945123877</v>
       </c>
       <c r="O33" t="n">
-        <v>8.7842522168237789</v>
+        <v>8.5707294017775091</v>
       </c>
       <c r="P33" t="n">
-        <v>0.085887039004465843</v>
+        <v>0.087529331776987795</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.0578753116759332</v>
+        <v>1.0781035202061262</v>
       </c>
     </row>
     <row r="34">
@@ -2000,46 +2000,46 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>0.83423281624650403</v>
+        <v>0.83423281581776598</v>
       </c>
       <c r="E34" t="n">
-        <v>15.188067840261002</v>
+        <v>14.904037463811164</v>
       </c>
       <c r="F34" t="n">
-        <v>1.449121449465854</v>
+        <v>1.4640177822661242</v>
       </c>
       <c r="G34" t="n">
-        <v>0.74417155187332973</v>
+        <v>0.73164289386620807</v>
       </c>
       <c r="H34" t="n">
-        <v>7.8966371003400484</v>
+        <v>7.7710164695921549</v>
       </c>
       <c r="I34" t="n">
-        <v>0.013132596878136301</v>
+        <v>0.0070186788282111251</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0089455774973180874</v>
+        <v>-0.0099226022931942597</v>
       </c>
       <c r="K34" t="n">
-        <v>0.78628694708283053</v>
+        <v>0.77966439349265415</v>
       </c>
       <c r="L34" t="n">
-        <v>0.34362641828628659</v>
+        <v>0.33063921550366326</v>
       </c>
       <c r="M34" t="n">
-        <v>0.95830949591842984</v>
+        <v>0.93608820199809728</v>
       </c>
       <c r="N34" t="n">
-        <v>6.7896157374319088</v>
+        <v>6.6457972906463798</v>
       </c>
       <c r="O34" t="n">
-        <v>5.9391246567400175</v>
+        <v>5.8558714955310505</v>
       </c>
       <c r="P34" t="n">
-        <v>0.037014666512933857</v>
+        <v>0.036836155226778522</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.0351115988971362</v>
+        <v>1.0301195474581548</v>
       </c>
     </row>
     <row r="35">
@@ -2053,46 +2053,46 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>1.2149128004144309</v>
+        <v>1.2149127997037292</v>
       </c>
       <c r="E35" t="n">
-        <v>21.30312587488752</v>
+        <v>21.029627952382189</v>
       </c>
       <c r="F35" t="n">
-        <v>14.098812535440569</v>
+        <v>14.1251545319355</v>
       </c>
       <c r="G35" t="n">
-        <v>0.094741185000975101</v>
+        <v>0.093633004015052715</v>
       </c>
       <c r="H35" t="n">
-        <v>2.3455080700245245</v>
+        <v>2.3163255271416716</v>
       </c>
       <c r="I35" t="n">
-        <v>0.029533062668840728</v>
+        <v>0.016446362267126795</v>
       </c>
       <c r="J35" t="n">
-        <v>0.013888685467062086</v>
+        <v>0.00087198315946174427</v>
       </c>
       <c r="K35" t="n">
-        <v>0.81743865201414267</v>
+        <v>0.81419726058504449</v>
       </c>
       <c r="L35" t="n">
-        <v>0.70843846851322312</v>
+        <v>0.68703217777429948</v>
       </c>
       <c r="M35" t="n">
-        <v>1.8395985426655754</v>
+        <v>1.8101183557650455</v>
       </c>
       <c r="N35" t="n">
-        <v>9.4469524165921079</v>
+        <v>9.3047996515078157</v>
       </c>
       <c r="O35" t="n">
-        <v>7.7324907147174544</v>
+        <v>7.6671610721105941</v>
       </c>
       <c r="P35" t="n">
-        <v>0.079719169920675834</v>
+        <v>0.081882286601403204</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.0171054437439533</v>
+        <v>1.0447037957479037</v>
       </c>
     </row>
     <row r="36">
@@ -2106,46 +2106,46 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>0.75493020419207835</v>
+        <v>0.75493020375232833</v>
       </c>
       <c r="E36" t="n">
-        <v>16.059343443677946</v>
+        <v>15.850683402628183</v>
       </c>
       <c r="F36" t="n">
-        <v>9.7114858025168331</v>
+        <v>9.7400537910150735</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921173691151703</v>
+        <v>2.8862105331979504</v>
       </c>
       <c r="H36" t="n">
-        <v>1.5399379116823986</v>
+        <v>1.5157852522634472</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0030602449810984097</v>
+        <v>-0.0081377417006681593</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0092387963289393034</v>
+        <v>-0.0038743056028515102</v>
       </c>
       <c r="K36" t="n">
-        <v>0.71071142826645728</v>
+        <v>0.7076452691803381</v>
       </c>
       <c r="L36" t="n">
-        <v>0.39837840258080914</v>
+        <v>0.38488021233533559</v>
       </c>
       <c r="M36" t="n">
-        <v>1.0744578489861289</v>
+        <v>1.0570322028914336</v>
       </c>
       <c r="N36" t="n">
-        <v>8.3436630343476157</v>
+        <v>8.2172218991510633</v>
       </c>
       <c r="O36" t="n">
-        <v>5.0341502466454306</v>
+        <v>4.9953688268505667</v>
       </c>
       <c r="P36" t="n">
-        <v>0.079546451234123711</v>
+        <v>0.081339600644828688</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.0265053796234549</v>
+        <v>1.0496450351355047</v>
       </c>
     </row>
     <row r="37">
@@ -2159,46 +2159,46 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>1.1785513752446568</v>
+        <v>1.1785513747423324</v>
       </c>
       <c r="E37" t="n">
-        <v>18.710399218263387</v>
+        <v>18.53421932576671</v>
       </c>
       <c r="F37" t="n">
-        <v>15.734308265794951</v>
+        <v>15.698187548018989</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12157052246195325</v>
+        <v>0.12051488110939287</v>
       </c>
       <c r="H37" t="n">
-        <v>1.279844001541903</v>
+        <v>1.2683852185756956</v>
       </c>
       <c r="I37" t="n">
-        <v>0.031570805694187382</v>
+        <v>0.021240918080635416</v>
       </c>
       <c r="J37" t="n">
-        <v>0.013908313213205464</v>
+        <v>0.0043612024203034073</v>
       </c>
       <c r="K37" t="n">
-        <v>0.72518798610070845</v>
+        <v>0.72420130756689993</v>
       </c>
       <c r="L37" t="n">
-        <v>0.55073756627445614</v>
+        <v>0.53410935553683514</v>
       </c>
       <c r="M37" t="n">
-        <v>1.4220017725038288</v>
+        <v>1.4052809678127498</v>
       </c>
       <c r="N37" t="n">
-        <v>10.030364619602228</v>
+        <v>9.9157957259693443</v>
       </c>
       <c r="O37" t="n">
-        <v>5.3147813459361402</v>
+        <v>5.2926973145756504</v>
       </c>
       <c r="P37" t="n">
-        <v>0.080071420213788977</v>
+        <v>0.082285188017536148</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.0062812030380619</v>
+        <v>1.0341022768341219</v>
       </c>
     </row>
     <row r="38">
@@ -2212,46 +2212,46 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6994233832712492</v>
+        <v>0.69942338327104125</v>
       </c>
       <c r="E38" t="n">
-        <v>11.952236313411303</v>
+        <v>11.613457532698316</v>
       </c>
       <c r="F38" t="n">
-        <v>5.5467615144591669</v>
+        <v>5.5021269998211197</v>
       </c>
       <c r="G38" t="n">
-        <v>0.94409665968898959</v>
+        <v>0.91747724312823742</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1317593790369087</v>
+        <v>3.0517234801450033</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.049581115553754961</v>
+        <v>-0.049621628422491848</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0066227714642157418</v>
+        <v>-0.021909331336074429</v>
       </c>
       <c r="K38" t="n">
-        <v>0.64430239947033663</v>
+        <v>0.63989649579019892</v>
       </c>
       <c r="L38" t="n">
-        <v>0.34171333018013944</v>
+        <v>0.32645758509510747</v>
       </c>
       <c r="M38" t="n">
-        <v>1.4531920958182762</v>
+        <v>1.4021797440605819</v>
       </c>
       <c r="N38" t="n">
-        <v>2.203127035219524</v>
+        <v>2.1293299178098568</v>
       </c>
       <c r="O38" t="n">
-        <v>7.1799192637560942</v>
+        <v>7.0050447680384709</v>
       </c>
       <c r="P38" t="n">
-        <v>0.071471180466870371</v>
+        <v>0.069240768754096182</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.1284469947064482</v>
+        <v>1.0932313822685493</v>
       </c>
     </row>
     <row r="39">
@@ -2265,46 +2265,46 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>0.964748953168722</v>
+        <v>0.96474895245271175</v>
       </c>
       <c r="E39" t="n">
-        <v>14.383529261916385</v>
+        <v>14.051873517220777</v>
       </c>
       <c r="F39" t="n">
-        <v>6.2479242317360644</v>
+        <v>6.187328275772674</v>
       </c>
       <c r="G39" t="n">
-        <v>0.21043940279545303</v>
+        <v>0.20558699541316711</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9951588069372983</v>
+        <v>3.9127249237711226</v>
       </c>
       <c r="I39" t="n">
-        <v>0.025706999303308203</v>
+        <v>0.021765472779670701</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01427951797221658</v>
+        <v>-0.0091077621949434417</v>
       </c>
       <c r="K39" t="n">
-        <v>0.66041412787922049</v>
+        <v>0.65754940937639361</v>
       </c>
       <c r="L39" t="n">
-        <v>0.39407414534819063</v>
+        <v>0.37653803629545773</v>
       </c>
       <c r="M39" t="n">
-        <v>1.4964638192822428</v>
+        <v>1.4537019357389578</v>
       </c>
       <c r="N39" t="n">
-        <v>4.5659312318124465</v>
+        <v>4.440137387104933</v>
       </c>
       <c r="O39" t="n">
-        <v>6.9175534473350675</v>
+        <v>6.7944817969373599</v>
       </c>
       <c r="P39" t="n">
-        <v>0.049383245411395785</v>
+        <v>0.049010208475163519</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.0226008979870358</v>
+        <v>1.014876255241514</v>
       </c>
     </row>
     <row r="40">
@@ -2318,46 +2318,46 @@
         <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>1.022926083642502</v>
+        <v>1.0164494946977103</v>
       </c>
       <c r="E40" t="n">
-        <v>14.932536614470191</v>
+        <v>14.651489593135194</v>
       </c>
       <c r="F40" t="n">
-        <v>1.8675915173562758</v>
+        <v>1.813203554261436</v>
       </c>
       <c r="G40" t="n">
-        <v>3.7312210931339007</v>
+        <v>3.6566311061934686</v>
       </c>
       <c r="H40" t="n">
-        <v>5.2286089503758042</v>
+        <v>5.2672195420854502</v>
       </c>
       <c r="I40" t="n">
-        <v>0.014060764039187625</v>
+        <v>0.008587495497440702</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0090286178373811601</v>
+        <v>0.0072215007125729057</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4512808258521453</v>
+        <v>0.45212148219036474</v>
       </c>
       <c r="L40" t="n">
-        <v>0.41406478501360028</v>
+        <v>0.40124025300985766</v>
       </c>
       <c r="M40" t="n">
-        <v>3.8120628135649302</v>
+        <v>3.7288414128889631</v>
       </c>
       <c r="N40" t="n">
-        <v>1.3442400873180906</v>
+        <v>1.3122774338986443</v>
       </c>
       <c r="O40" t="n">
-        <v>8.3163661516342486</v>
+        <v>8.1845043114521268</v>
       </c>
       <c r="P40" t="n">
-        <v>0.083676788303007205</v>
+        <v>0.085925501032775686</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.0489637903041622</v>
+        <v>1.0528605713597772</v>
       </c>
     </row>
     <row r="41">
@@ -2371,46 +2371,46 @@
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>2.2933982583617443</v>
+        <v>2.2629490215383417</v>
       </c>
       <c r="E41" t="n">
-        <v>25.183506849610364</v>
+        <v>24.544259491386253</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0015165475387203494</v>
+        <v>0.0020743757102596135</v>
       </c>
       <c r="G41" t="n">
-        <v>15.846280503766774</v>
+        <v>15.630417889808344</v>
       </c>
       <c r="H41" t="n">
-        <v>5.8991385978191291</v>
+        <v>5.8020181047775967</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02282800869847923</v>
+        <v>0.012769757989642017</v>
       </c>
       <c r="J41" t="n">
-        <v>0.017884805407529573</v>
+        <v>0.011761252323592526</v>
       </c>
       <c r="K41" t="n">
-        <v>0.60019338355884844</v>
+        <v>0.596754256997163</v>
       </c>
       <c r="L41" t="n">
-        <v>0.38861111301910761</v>
+        <v>0.37034294563516357</v>
       </c>
       <c r="M41" t="n">
-        <v>9.4838375261586361</v>
+        <v>9.2137021671734196</v>
       </c>
       <c r="N41" t="n">
-        <v>2.3973981095898953</v>
+        <v>2.3245454154079135</v>
       </c>
       <c r="O41" t="n">
-        <v>10.503451977648645</v>
+        <v>10.296094892964767</v>
       </c>
       <c r="P41" t="n">
-        <v>0.078307069286214101</v>
+        <v>0.080731456575665356</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.0405176856711973</v>
+        <v>1.0481674986435683</v>
       </c>
     </row>
     <row r="42">
@@ -2424,46 +2424,46 @@
         <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>2.0747707733658141</v>
+        <v>2.0549419998375975</v>
       </c>
       <c r="E42" t="n">
-        <v>44.162840860160891</v>
+        <v>34.232176421692337</v>
       </c>
       <c r="F42" t="n">
-        <v>17.447643644152723</v>
+        <v>14.028741580975527</v>
       </c>
       <c r="G42" t="n">
-        <v>8.7504567790153462</v>
+        <v>5.2605481940188499</v>
       </c>
       <c r="H42" t="n">
-        <v>14.56691514779112</v>
+        <v>12.212374933804774</v>
       </c>
       <c r="I42" t="n">
-        <v>0.026451799896693662</v>
+        <v>0.01828625839030475</v>
       </c>
       <c r="J42" t="n">
-        <v>0.012774319976130592</v>
+        <v>0.009765006900281049</v>
       </c>
       <c r="K42" t="n">
-        <v>0.75172923314241125</v>
+        <v>0.75598064540156495</v>
       </c>
       <c r="L42" t="n">
-        <v>2.1696728680762316</v>
+        <v>2.0566691694603256</v>
       </c>
       <c r="M42" t="n">
-        <v>3.9630056791255859</v>
+        <v>3.0545082328843747</v>
       </c>
       <c r="N42" t="n">
-        <v>8.3957280627758895</v>
+        <v>6.4457008889258569</v>
       </c>
       <c r="O42" t="n">
-        <v>26.166676923887533</v>
+        <v>20.397342330571394</v>
       </c>
       <c r="P42" t="n">
-        <v>0.081618703406457979</v>
+        <v>0.084143890529167431</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.029435363175448</v>
+        <v>1.0371868813199177</v>
       </c>
     </row>
     <row r="43">
@@ -2477,46 +2477,46 @@
         <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>1.3525314783058984</v>
+        <v>1.2762686496251279</v>
       </c>
       <c r="E43" t="n">
-        <v>21.439110587329179</v>
+        <v>19.812331381546741</v>
       </c>
       <c r="F43" t="n">
-        <v>6.6235627780933255</v>
+        <v>6.669687623333119</v>
       </c>
       <c r="G43" t="n">
-        <v>0.253999431347667</v>
+        <v>0.23520439048092723</v>
       </c>
       <c r="H43" t="n">
-        <v>5.1172655493791188</v>
+        <v>4.492039282267914</v>
       </c>
       <c r="I43" t="n">
-        <v>0.017485640184359084</v>
+        <v>-0.0081391843207805608</v>
       </c>
       <c r="J43" t="n">
-        <v>0.011828423733184958</v>
+        <v>-0.00019116393648130903</v>
       </c>
       <c r="K43" t="n">
-        <v>0.72358465415764894</v>
+        <v>0.7007973916755863</v>
       </c>
       <c r="L43" t="n">
-        <v>0.69189019628733761</v>
+        <v>0.61988668694333382</v>
       </c>
       <c r="M43" t="n">
-        <v>4.4817117455221913</v>
+        <v>4.1206491003670687</v>
       </c>
       <c r="N43" t="n">
-        <v>2.3700676964958003</v>
+        <v>2.1654082875343357</v>
       </c>
       <c r="O43" t="n">
-        <v>12.301907038139401</v>
+        <v>11.453966558873201</v>
       </c>
       <c r="P43" t="n">
-        <v>0.07919588687573173</v>
+        <v>0.081353662630082257</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.0397972801669506</v>
+        <v>1.0454031578402343</v>
       </c>
     </row>
     <row r="44">
@@ -2530,46 +2530,46 @@
         <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6644450265528552</v>
+        <v>0.66442517813328639</v>
       </c>
       <c r="E44" t="n">
-        <v>20.953645272414093</v>
+        <v>19.685507479930504</v>
       </c>
       <c r="F44" t="n">
-        <v>0.53339054479129422</v>
+        <v>0.53044088439656878</v>
       </c>
       <c r="G44" t="n">
-        <v>0.20282525569453183</v>
+        <v>0.19070316544449234</v>
       </c>
       <c r="H44" t="n">
-        <v>5.5610168399432256</v>
+        <v>5.4293795015809634</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.04967951969580027</v>
+        <v>-0.049725173667324034</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0089540303174321587</v>
+        <v>-0.0043474026392530656</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4000720872958109</v>
+        <v>0.39156305860713214</v>
       </c>
       <c r="L44" t="n">
-        <v>0.68318934960430444</v>
+        <v>0.62129635904871716</v>
       </c>
       <c r="M44" t="n">
-        <v>2.5395858883075091</v>
+        <v>2.3478144725554317</v>
       </c>
       <c r="N44" t="n">
-        <v>3.3285182377607065</v>
+        <v>3.0942325142414857</v>
       </c>
       <c r="O44" t="n">
-        <v>12.970211387840896</v>
+        <v>12.287566116605271</v>
       </c>
       <c r="P44" t="n">
-        <v>0.073551028063004648</v>
+        <v>0.070077730333833743</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.1928305258559089</v>
+        <v>1.189726720222398</v>
       </c>
     </row>
     <row r="45">
@@ -2583,46 +2583,46 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1726602563682091</v>
+        <v>1.1561592957635678</v>
       </c>
       <c r="E45" t="n">
-        <v>19.575730165348034</v>
+        <v>19.0403015829502</v>
       </c>
       <c r="F45" t="n">
-        <v>4.3255041576995428</v>
+        <v>4.3063358390652269</v>
       </c>
       <c r="G45" t="n">
-        <v>4.2850018724404837</v>
+        <v>4.1708006973564054</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5903559997565875</v>
+        <v>4.5357322954799937</v>
       </c>
       <c r="I45" t="n">
-        <v>0.017446682895523691</v>
+        <v>0.0068587870665525455</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0081707573983242875</v>
+        <v>0.0061417317193533756</v>
       </c>
       <c r="K45" t="n">
-        <v>0.81109628073429429</v>
+        <v>0.80421326806135729</v>
       </c>
       <c r="L45" t="n">
-        <v>0.60412534637881321</v>
+        <v>0.57483499207338418</v>
       </c>
       <c r="M45" t="n">
-        <v>2.7571387634922262</v>
+        <v>2.6729025371867037</v>
       </c>
       <c r="N45" t="n">
-        <v>5.6251678961035516</v>
+        <v>5.445841128475255</v>
       </c>
       <c r="O45" t="n">
-        <v>9.1519225197405376</v>
+        <v>8.9490918333444949</v>
       </c>
       <c r="P45" t="n">
-        <v>0.083593171486415638</v>
+        <v>0.085691792804339625</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.0440421530037611</v>
+        <v>1.0500081758137707</v>
       </c>
     </row>
     <row r="46">
@@ -2636,46 +2636,46 @@
         <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>1.5927476208131954</v>
+        <v>1.5742588532184523</v>
       </c>
       <c r="E46" t="n">
-        <v>19.428482456353752</v>
+        <v>19.063298262318288</v>
       </c>
       <c r="F46" t="n">
-        <v>10.858095200285131</v>
+        <v>10.789708869807983</v>
       </c>
       <c r="G46" t="n">
-        <v>1.2318377495343784</v>
+        <v>1.2095147038950986</v>
       </c>
       <c r="H46" t="n">
-        <v>1.3071397683043549</v>
+        <v>1.2526465524665711</v>
       </c>
       <c r="I46" t="n">
-        <v>0.025951893512245961</v>
+        <v>0.015886875101507832</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01331660790315616</v>
+        <v>0.0094772876931679337</v>
       </c>
       <c r="K46" t="n">
-        <v>0.63123630801486053</v>
+        <v>0.62808831890767347</v>
       </c>
       <c r="L46" t="n">
-        <v>0.628936753140236</v>
+        <v>0.60431788232901085</v>
       </c>
       <c r="M46" t="n">
-        <v>2.6546814725131713</v>
+        <v>2.6001640296908617</v>
       </c>
       <c r="N46" t="n">
-        <v>7.2152678240875225</v>
+        <v>7.0556583193951417</v>
       </c>
       <c r="O46" t="n">
-        <v>7.5359717904385057</v>
+        <v>7.4319649100534386</v>
       </c>
       <c r="P46" t="n">
-        <v>0.078443891950461905</v>
+        <v>0.080554644009241533</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.0248259815781371</v>
+        <v>1.0331526658952783</v>
       </c>
     </row>
     <row r="47">
@@ -2689,46 +2689,46 @@
         <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>0.96614201411751943</v>
+        <v>0.95792049009700719</v>
       </c>
       <c r="E47" t="n">
-        <v>17.959166400880342</v>
+        <v>17.525577233201233</v>
       </c>
       <c r="F47" t="n">
-        <v>8.6101789718289528</v>
+        <v>8.4383082504061715</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2331459571973968</v>
+        <v>3.153404875005219</v>
       </c>
       <c r="H47" t="n">
-        <v>4.6873680513601208</v>
+        <v>4.5832452601503277</v>
       </c>
       <c r="I47" t="n">
-        <v>0.021814210597775698</v>
+        <v>0.013517962647185734</v>
       </c>
       <c r="J47" t="n">
-        <v>0.014397829443429011</v>
+        <v>0.010139275271123101</v>
       </c>
       <c r="K47" t="n">
-        <v>0.61829629527503038</v>
+        <v>0.61658660293390011</v>
       </c>
       <c r="L47" t="n">
-        <v>0.66302250985209965</v>
+        <v>0.63225849736627038</v>
       </c>
       <c r="M47" t="n">
-        <v>1.7603630939143695</v>
+        <v>1.7112433989040001</v>
       </c>
       <c r="N47" t="n">
-        <v>5.803002441636159</v>
+        <v>5.6331819699126671</v>
       </c>
       <c r="O47" t="n">
-        <v>8.5607748696598698</v>
+        <v>8.4009187301399511</v>
       </c>
       <c r="P47" t="n">
-        <v>0.07299246463240408</v>
+        <v>0.074431946662133777</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.0220090987343824</v>
+        <v>1.0304143617184574</v>
       </c>
     </row>
     <row r="48">
@@ -2742,46 +2742,46 @@
         <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>1.854795018426991</v>
+        <v>1.8293319586255623</v>
       </c>
       <c r="E48" t="n">
-        <v>25.474622439335828</v>
+        <v>24.794888020034879</v>
       </c>
       <c r="F48" t="n">
-        <v>7.9207730823625111</v>
+        <v>7.7975031361659646</v>
       </c>
       <c r="G48" t="n">
-        <v>4.6292344960538756</v>
+        <v>4.5049655165138685</v>
       </c>
       <c r="H48" t="n">
-        <v>7.8401496185394732</v>
+        <v>7.6856495509245919</v>
       </c>
       <c r="I48" t="n">
-        <v>0.023931092577235375</v>
+        <v>0.012889352038128819</v>
       </c>
       <c r="J48" t="n">
-        <v>0.013279875128692355</v>
+        <v>0.0094711268751473555</v>
       </c>
       <c r="K48" t="n">
-        <v>0.68254697720207569</v>
+        <v>0.67907047293816702</v>
       </c>
       <c r="L48" t="n">
-        <v>0.91105886699847238</v>
+        <v>0.87003460090773876</v>
       </c>
       <c r="M48" t="n">
-        <v>4.0788871247754113</v>
+        <v>3.9569229321347583</v>
       </c>
       <c r="N48" t="n">
-        <v>5.463503379713349</v>
+        <v>5.2885996983802599</v>
       </c>
       <c r="O48" t="n">
-        <v>13.096551977732624</v>
+        <v>12.807799027176108</v>
       </c>
       <c r="P48" t="n">
-        <v>0.080134142334494576</v>
+        <v>0.082793798899137197</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.0330732106996177</v>
+        <v>1.0401467578798229</v>
       </c>
     </row>
     <row r="49">
@@ -2795,46 +2795,46 @@
         <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>1.181529720184795</v>
+        <v>1.1585141398724379</v>
       </c>
       <c r="E49" t="n">
-        <v>19.522677561918652</v>
+        <v>18.909653135703312</v>
       </c>
       <c r="F49" t="n">
-        <v>5.2559262263452746</v>
+        <v>5.1958936052602542</v>
       </c>
       <c r="G49" t="n">
-        <v>1.3895099060862872</v>
+        <v>1.3461495439531834</v>
       </c>
       <c r="H49" t="n">
-        <v>8.2679499834566101</v>
+        <v>8.0731433428002024</v>
       </c>
       <c r="I49" t="n">
-        <v>0.017670981518511646</v>
+        <v>0.0048765814183301158</v>
       </c>
       <c r="J49" t="n">
-        <v>0.011070222236074328</v>
+        <v>0.0068966648682410167</v>
       </c>
       <c r="K49" t="n">
-        <v>0.73462761036744761</v>
+        <v>0.72859797250056768</v>
       </c>
       <c r="L49" t="n">
-        <v>0.63116048737766761</v>
+        <v>0.60110853798131758</v>
       </c>
       <c r="M49" t="n">
-        <v>3.4552424811087987</v>
+        <v>3.3368054497933164</v>
       </c>
       <c r="N49" t="n">
-        <v>3.2213028478211334</v>
+        <v>3.1022726898095976</v>
       </c>
       <c r="O49" t="n">
-        <v>10.811454448501427</v>
+        <v>10.514847422271096</v>
       </c>
       <c r="P49" t="n">
-        <v>0.08257901507476359</v>
+        <v>0.084884503661757565</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.0399581347897335</v>
+        <v>1.0451517276832096</v>
       </c>
     </row>
     <row r="50">
@@ -2848,46 +2848,46 @@
         <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>3.7692210400641684</v>
+        <v>3.7158134839132226</v>
       </c>
       <c r="E50" t="n">
-        <v>35.766954797446139</v>
+        <v>35.155884147800371</v>
       </c>
       <c r="F50" t="n">
-        <v>17.329612729960587</v>
+        <v>17.297876351460967</v>
       </c>
       <c r="G50" t="n">
-        <v>1.3045115115918708</v>
+        <v>1.2836857332846168</v>
       </c>
       <c r="H50" t="n">
-        <v>10.330871148743503</v>
+        <v>10.107795073368845</v>
       </c>
       <c r="I50" t="n">
-        <v>0.028639453621666217</v>
+        <v>0.016853491648819212</v>
       </c>
       <c r="J50" t="n">
-        <v>0.020229567365293074</v>
+        <v>0.013863204394416536</v>
       </c>
       <c r="K50" t="n">
-        <v>0.74076578235919177</v>
+        <v>0.73652054658180066</v>
       </c>
       <c r="L50" t="n">
-        <v>0.80245047195531527</v>
+        <v>0.77793652024816939</v>
       </c>
       <c r="M50" t="n">
-        <v>10.638789107382498</v>
+        <v>10.44924292179758</v>
       </c>
       <c r="N50" t="n">
-        <v>7.1799240878430322</v>
+        <v>7.0369921207678745</v>
       </c>
       <c r="O50" t="n">
-        <v>13.62275152225167</v>
+        <v>13.436202948189699</v>
       </c>
       <c r="P50" t="n">
-        <v>0.082058156634201712</v>
+        <v>0.084134390739331141</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.0269489294879026</v>
+        <v>1.0325288974280453</v>
       </c>
     </row>
     <row r="51">
@@ -2901,46 +2901,46 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>8.7728384595029905</v>
+        <v>8.6479459531411553</v>
       </c>
       <c r="E51" t="n">
-        <v>79.502955004035755</v>
+        <v>78.21728992858732</v>
       </c>
       <c r="F51" t="n">
-        <v>59.146742717550339</v>
+        <v>58.644742734191347</v>
       </c>
       <c r="G51" t="n">
-        <v>2.38217310934172</v>
+        <v>2.3448174699722766</v>
       </c>
       <c r="H51" t="n">
-        <v>10.55071134498716</v>
+        <v>10.320182491231993</v>
       </c>
       <c r="I51" t="n">
-        <v>0.035897337670409417</v>
+        <v>0.023280026782719447</v>
       </c>
       <c r="J51" t="n">
-        <v>0.032075060539735328</v>
+        <v>0.023055445964193396</v>
       </c>
       <c r="K51" t="n">
-        <v>0.80023564261644242</v>
+        <v>0.79758668893804829</v>
       </c>
       <c r="L51" t="n">
-        <v>1.458151858991632</v>
+        <v>1.4184582143058619</v>
       </c>
       <c r="M51" t="n">
-        <v>32.259074349951838</v>
+        <v>31.722157136019696</v>
       </c>
       <c r="N51" t="n">
-        <v>6.2443651537965863</v>
+        <v>6.1240404693278343</v>
       </c>
       <c r="O51" t="n">
-        <v>29.419319535237697</v>
+        <v>29.022859243975017</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0752777567592091</v>
+        <v>0.077418070698289543</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.0234651403841406</v>
+        <v>1.0286656257642177</v>
       </c>
     </row>
     <row r="52">
@@ -2954,46 +2954,46 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>0.93726275167123418</v>
+        <v>0.91817579981238218</v>
       </c>
       <c r="E52" t="n">
-        <v>19.772687090167196</v>
+        <v>19.149375447233989</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2827122155522965</v>
+        <v>1.2934790222507919</v>
       </c>
       <c r="G52" t="n">
-        <v>1.1303213667046992</v>
+        <v>1.0969636736456787</v>
       </c>
       <c r="H52" t="n">
-        <v>10.738433044784045</v>
+        <v>10.568060514086392</v>
       </c>
       <c r="I52" t="n">
-        <v>0.012845904487906564</v>
+        <v>-0.00012105932431879713</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0040899692481179018</v>
+        <v>0.0034189126740883989</v>
       </c>
       <c r="K52" t="n">
-        <v>0.66608045434689311</v>
+        <v>0.65696198574121722</v>
       </c>
       <c r="L52" t="n">
-        <v>0.72959894051869278</v>
+        <v>0.6897384095926461</v>
       </c>
       <c r="M52" t="n">
-        <v>2.0474864139057378</v>
+        <v>1.9770833871015303</v>
       </c>
       <c r="N52" t="n">
-        <v>6.8331246142566471</v>
+        <v>6.5866382910407095</v>
       </c>
       <c r="O52" t="n">
-        <v>8.8242690032471494</v>
+        <v>8.5993429615640995</v>
       </c>
       <c r="P52" t="n">
-        <v>0.084644142956452298</v>
+        <v>0.086761503217018074</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.0593709477300435</v>
+        <v>1.0644128858920394</v>
       </c>
     </row>
     <row r="53">
@@ -3007,46 +3007,46 @@
         <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>0.84518845952478172</v>
+        <v>0.84008802801994509</v>
       </c>
       <c r="E53" t="n">
-        <v>15.314386802352928</v>
+        <v>15.00077739944237</v>
       </c>
       <c r="F53" t="n">
-        <v>1.4776933879579184</v>
+        <v>1.4817356234057708</v>
       </c>
       <c r="G53" t="n">
-        <v>0.75100741255830084</v>
+        <v>0.73677549491371874</v>
       </c>
       <c r="H53" t="n">
-        <v>7.9794923454725852</v>
+        <v>7.8300056470215793</v>
       </c>
       <c r="I53" t="n">
-        <v>0.013594014527133144</v>
+        <v>0.0072585793244115343</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0083169869545272491</v>
+        <v>0.0064908542981123212</v>
       </c>
       <c r="K53" t="n">
-        <v>0.78633507021087923</v>
+        <v>0.77992254403252848</v>
       </c>
       <c r="L53" t="n">
-        <v>0.34779277309444961</v>
+        <v>0.33332158331460432</v>
       </c>
       <c r="M53" t="n">
-        <v>0.965165738422881</v>
+        <v>0.94204589934629601</v>
       </c>
       <c r="N53" t="n">
-        <v>6.8597631387627063</v>
+        <v>6.6989111025623194</v>
       </c>
       <c r="O53" t="n">
-        <v>5.9830604210931631</v>
+        <v>5.8915892805083709</v>
       </c>
       <c r="P53" t="n">
-        <v>0.036537857096238316</v>
+        <v>0.036623993434712364</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.037736457251448</v>
+        <v>1.0468862772255729</v>
       </c>
     </row>
     <row r="54">
@@ -3060,46 +3060,46 @@
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2507928962862471</v>
+        <v>1.234893695730626</v>
       </c>
       <c r="E54" t="n">
-        <v>21.558994338391962</v>
+        <v>21.208154201101159</v>
       </c>
       <c r="F54" t="n">
-        <v>14.364983102613978</v>
+        <v>14.291765865067617</v>
       </c>
       <c r="G54" t="n">
-        <v>0.095957748128666809</v>
+        <v>0.094476529509886512</v>
       </c>
       <c r="H54" t="n">
-        <v>2.3665965890430001</v>
+        <v>2.3322575893126651</v>
       </c>
       <c r="I54" t="n">
-        <v>0.024815719570005244</v>
+        <v>0.013968434130644533</v>
       </c>
       <c r="J54" t="n">
-        <v>0.012010841273113984</v>
+        <v>0.0084892728070706282</v>
       </c>
       <c r="K54" t="n">
-        <v>0.81875156550077932</v>
+        <v>0.81512525098368571</v>
       </c>
       <c r="L54" t="n">
-        <v>0.71978036501895148</v>
+        <v>0.69385201288910159</v>
       </c>
       <c r="M54" t="n">
-        <v>1.8537268313674899</v>
+        <v>1.8219056324422733</v>
       </c>
       <c r="N54" t="n">
-        <v>9.5851792315916668</v>
+        <v>9.4009852537130048</v>
       </c>
       <c r="O54" t="n">
-        <v>7.8176765161724031</v>
+        <v>7.7295136053326781</v>
       </c>
       <c r="P54" t="n">
-        <v>0.078806574658769057</v>
+        <v>0.081378960352354757</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.0216727376627062</v>
+        <v>1.030857077975569</v>
       </c>
     </row>
     <row r="55">
@@ -3113,46 +3113,46 @@
         <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>0.75724047556053675</v>
+        <v>0.7487867767521591</v>
       </c>
       <c r="E55" t="n">
-        <v>16.197770999061735</v>
+        <v>15.943114737865857</v>
       </c>
       <c r="F55" t="n">
-        <v>9.8566593687874793</v>
+        <v>9.8259352956702735</v>
       </c>
       <c r="G55" t="n">
-        <v>2.9474071112109912</v>
+        <v>2.9035697288438036</v>
       </c>
       <c r="H55" t="n">
-        <v>1.553176746816602</v>
+        <v>1.5252856186863668</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0076333213456562668</v>
+        <v>-0.0020918217159948383</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0086197518515791719</v>
+        <v>0.0058313785525706497</v>
       </c>
       <c r="K55" t="n">
-        <v>0.71179418610153389</v>
+        <v>0.70838094645567651</v>
       </c>
       <c r="L55" t="n">
-        <v>0.40456982847778772</v>
+        <v>0.3886556918473183</v>
       </c>
       <c r="M55" t="n">
-        <v>1.0852202698546163</v>
+        <v>1.0669215424169376</v>
       </c>
       <c r="N55" t="n">
-        <v>8.4304690972170633</v>
+        <v>8.2750248362444925</v>
       </c>
       <c r="O55" t="n">
-        <v>5.0688800646449792</v>
+        <v>5.0195502250128312</v>
       </c>
       <c r="P55" t="n">
-        <v>0.078371653541059502</v>
+        <v>0.080592788481978164</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.0273735483617323</v>
+        <v>1.0372198074155199</v>
       </c>
     </row>
     <row r="56">
@@ -3166,46 +3166,46 @@
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1.2157591917131232</v>
+        <v>1.2035848879470545</v>
       </c>
       <c r="E56" t="n">
-        <v>18.934140130305877</v>
+        <v>18.694048666705992</v>
       </c>
       <c r="F56" t="n">
-        <v>15.974758021155063</v>
+        <v>15.859814321462899</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1230817199362489</v>
+        <v>0.12159871554954067</v>
       </c>
       <c r="H56" t="n">
-        <v>1.2926034567503313</v>
+        <v>1.277701444982797</v>
       </c>
       <c r="I56" t="n">
-        <v>0.027329070249035695</v>
+        <v>0.01730953335274869</v>
       </c>
       <c r="J56" t="n">
-        <v>0.011958104657868293</v>
+        <v>0.0086234730543564807</v>
       </c>
       <c r="K56" t="n">
-        <v>0.72712873639114772</v>
+        <v>0.72539457896358661</v>
       </c>
       <c r="L56" t="n">
-        <v>0.56098631867307602</v>
+        <v>0.54024154350938192</v>
       </c>
       <c r="M56" t="n">
-        <v>1.4321214025981914</v>
+        <v>1.4130039783428781</v>
       </c>
       <c r="N56" t="n">
-        <v>10.173748601505382</v>
+        <v>10.018693557894689</v>
       </c>
       <c r="O56" t="n">
-        <v>5.3695509544307196</v>
+        <v>5.3345756908305528</v>
       </c>
       <c r="P56" t="n">
-        <v>0.079200180009453128</v>
+        <v>0.08188715570527047</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.0112877644404097</v>
+        <v>1.0226068383631417</v>
       </c>
     </row>
     <row r="57">
@@ -3219,46 +3219,46 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>0.66474519168427915</v>
+        <v>0.66471685603636355</v>
       </c>
       <c r="E57" t="n">
-        <v>12.011602294784742</v>
+        <v>11.63922865561633</v>
       </c>
       <c r="F57" t="n">
-        <v>5.6144473845564935</v>
+        <v>5.5280235747527176</v>
       </c>
       <c r="G57" t="n">
-        <v>0.94893112030006532</v>
+        <v>0.91935594115041253</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1559320583732173</v>
+        <v>3.0662168042644535</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.049206767357116335</v>
+        <v>-0.049533172142764093</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0049669350418403285</v>
+        <v>0.0022190741082450437</v>
       </c>
       <c r="K57" t="n">
-        <v>0.64492164689651799</v>
+        <v>0.64048359884223371</v>
       </c>
       <c r="L57" t="n">
-        <v>0.34654973665904221</v>
+        <v>0.32955052010767538</v>
       </c>
       <c r="M57" t="n">
-        <v>1.4803129580666965</v>
+        <v>1.4235112247949382</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2162182466648424</v>
+        <v>2.1347289291826232</v>
       </c>
       <c r="O57" t="n">
-        <v>7.1996832922667622</v>
+        <v>7.0083221755957466</v>
       </c>
       <c r="P57" t="n">
-        <v>0.076246842540552306</v>
+        <v>0.073898047504198303</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.1254320425054087</v>
+        <v>1.1259586787158955</v>
       </c>
     </row>
     <row r="58">
@@ -3272,46 +3272,46 @@
         <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>0.98954975383569765</v>
+        <v>0.98574716951653707</v>
       </c>
       <c r="E58" t="n">
-        <v>14.563811550278716</v>
+        <v>14.187049239066123</v>
       </c>
       <c r="F58" t="n">
-        <v>6.3852312113787706</v>
+        <v>6.2789833504793995</v>
       </c>
       <c r="G58" t="n">
-        <v>0.21331381120468992</v>
+        <v>0.20773149309166339</v>
       </c>
       <c r="H58" t="n">
-        <v>4.0372833494481295</v>
+        <v>3.9450197264331415</v>
       </c>
       <c r="I58" t="n">
-        <v>0.022258265200055524</v>
+        <v>0.016932334899515841</v>
       </c>
       <c r="J58" t="n">
-        <v>0.012533939694457961</v>
+        <v>0.0096197650569290003</v>
       </c>
       <c r="K58" t="n">
-        <v>0.66097312244542761</v>
+        <v>0.65796639323426809</v>
       </c>
       <c r="L58" t="n">
-        <v>0.39973823908963374</v>
+        <v>0.38004004486656801</v>
       </c>
       <c r="M58" t="n">
-        <v>1.5104821793288721</v>
+        <v>1.4634390964762378</v>
       </c>
       <c r="N58" t="n">
-        <v>4.636210633140986</v>
+        <v>4.4925912240509795</v>
       </c>
       <c r="O58" t="n">
-        <v>7.0011965495948107</v>
+        <v>6.8603852056466641</v>
       </c>
       <c r="P58" t="n">
-        <v>0.048780982118989062</v>
+        <v>0.04877709746949771</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.0269078667575131</v>
+        <v>1.0343949500103364</v>
       </c>
     </row>
     <row r="59">
@@ -3325,46 +3325,46 @@
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0373092059341296</v>
+        <v>1.0251782501568028</v>
       </c>
       <c r="E59" t="n">
-        <v>15.069130956340828</v>
+        <v>14.76265273470486</v>
       </c>
       <c r="F59" t="n">
-        <v>1.916705848561957</v>
+        <v>1.8438004886862556</v>
       </c>
       <c r="G59" t="n">
-        <v>3.7703793287906238</v>
+        <v>3.6875128328876436</v>
       </c>
       <c r="H59" t="n">
-        <v>5.2947838976731054</v>
+        <v>5.3159218098040579</v>
       </c>
       <c r="I59" t="n">
-        <v>0.012117794796374154</v>
+        <v>0.0079984147267649248</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0091474305670392383</v>
+        <v>0.0075871562999130157</v>
       </c>
       <c r="K59" t="n">
-        <v>0.45035374512744558</v>
+        <v>0.45170692502330895</v>
       </c>
       <c r="L59" t="n">
-        <v>0.41632732877652989</v>
+        <v>0.40324514442513593</v>
       </c>
       <c r="M59" t="n">
-        <v>3.8424129396306066</v>
+        <v>3.7562354897432506</v>
       </c>
       <c r="N59" t="n">
-        <v>1.3602168701157136</v>
+        <v>1.3249572042351903</v>
       </c>
       <c r="O59" t="n">
-        <v>8.3999040111295802</v>
+        <v>8.2517668263388053</v>
       </c>
       <c r="P59" t="n">
-        <v>0.08276731842371006</v>
+        <v>0.085353675221982089</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.050789957892226</v>
+        <v>1.0530921815243066</v>
       </c>
     </row>
     <row r="60">
@@ -3378,46 +3378,46 @@
         <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>2.3457519737527033</v>
+        <v>2.2918463328862835</v>
       </c>
       <c r="E60" t="n">
-        <v>25.565849361646038</v>
+        <v>24.806397447091609</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0020308256203853004</v>
+        <v>0.0024222668279109058</v>
       </c>
       <c r="G60" t="n">
-        <v>16.255527690939246</v>
+        <v>15.883038306529901</v>
       </c>
       <c r="H60" t="n">
-        <v>5.931389023768852</v>
+        <v>5.8333905409660627</v>
       </c>
       <c r="I60" t="n">
-        <v>0.017973290361217861</v>
+        <v>0.010800169670967886</v>
       </c>
       <c r="J60" t="n">
-        <v>0.015182258544011689</v>
+        <v>0.010680214483445813</v>
       </c>
       <c r="K60" t="n">
-        <v>0.60000179769857676</v>
+        <v>0.59680339676184146</v>
       </c>
       <c r="L60" t="n">
-        <v>0.39192080186675421</v>
+        <v>0.37283002316749841</v>
       </c>
       <c r="M60" t="n">
-        <v>9.6092748059304771</v>
+        <v>9.307180253633403</v>
       </c>
       <c r="N60" t="n">
-        <v>2.4434692568143666</v>
+        <v>2.3557650795500749</v>
       </c>
       <c r="O60" t="n">
-        <v>10.681064666296262</v>
+        <v>10.416626455857932</v>
       </c>
       <c r="P60" t="n">
-        <v>0.077623679351248059</v>
+        <v>0.080275854267292501</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.0446904962092278</v>
+        <v>1.049493433453103</v>
       </c>
     </row>
     <row r="61">
@@ -3431,46 +3431,46 @@
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>2.1296521946943949</v>
+        <v>2.0925192002237174</v>
       </c>
       <c r="E61" t="n">
-        <v>44.679529867466123</v>
+        <v>34.555724942141048</v>
       </c>
       <c r="F61" t="n">
-        <v>17.813955017468345</v>
+        <v>14.237675753254095</v>
       </c>
       <c r="G61" t="n">
-        <v>8.8617885578823365</v>
+        <v>5.3144934380587285</v>
       </c>
       <c r="H61" t="n">
-        <v>14.707522754995248</v>
+        <v>12.312802182950334</v>
       </c>
       <c r="I61" t="n">
-        <v>0.021304654805181147</v>
+        <v>0.014964185648613801</v>
       </c>
       <c r="J61" t="n">
-        <v>0.011699632479289493</v>
+        <v>0.0094515907041096987</v>
       </c>
       <c r="K61" t="n">
-        <v>0.75179340154737295</v>
+        <v>0.75611322950168214</v>
       </c>
       <c r="L61" t="n">
-        <v>2.1908338034635348</v>
+        <v>2.0714346373554822</v>
       </c>
       <c r="M61" t="n">
-        <v>3.9944637272325489</v>
+        <v>3.0764739514421495</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5192755843710852</v>
+        <v>6.5221268065861304</v>
       </c>
       <c r="O61" t="n">
-        <v>26.486030358139473</v>
+        <v>20.602132846691731</v>
       </c>
       <c r="P61" t="n">
-        <v>0.080899366552672672</v>
+        <v>0.08372808722132076</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.0334435890625546</v>
+        <v>1.0392396037327785</v>
       </c>
     </row>
     <row r="62">
@@ -3484,46 +3484,46 @@
         <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>1.3761813570735746</v>
+        <v>1.2658808638429953</v>
       </c>
       <c r="E62" t="n">
-        <v>21.675757788919896</v>
+        <v>19.918709956340038</v>
       </c>
       <c r="F62" t="n">
-        <v>6.7748834233908015</v>
+        <v>6.7317372731070639</v>
       </c>
       <c r="G62" t="n">
-        <v>0.25716930672100985</v>
+        <v>0.23655781217971958</v>
       </c>
       <c r="H62" t="n">
-        <v>5.1795089704117965</v>
+        <v>4.5234344004757734</v>
       </c>
       <c r="I62" t="n">
-        <v>0.014394981944158567</v>
+        <v>0.00060210965679983824</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01103810723055736</v>
+        <v>0.0053693113013634584</v>
       </c>
       <c r="K62" t="n">
-        <v>0.72301084902692703</v>
+        <v>0.70099718180597359</v>
       </c>
       <c r="L62" t="n">
-        <v>0.69734214199345845</v>
+        <v>0.6243480201092706</v>
       </c>
       <c r="M62" t="n">
-        <v>4.5242128046800048</v>
+        <v>4.1563937263676083</v>
       </c>
       <c r="N62" t="n">
-        <v>2.4030858126990227</v>
+        <v>2.1797164467338379</v>
       </c>
       <c r="O62" t="n">
-        <v>12.447171564612951</v>
+        <v>11.510409854999059</v>
       </c>
       <c r="P62" t="n">
-        <v>0.078358905525464595</v>
+        <v>0.08084376355302586</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.0419918679438787</v>
+        <v>1.0448775898572147</v>
       </c>
     </row>
     <row r="63">
@@ -3537,46 +3537,46 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6314357167694461</v>
+        <v>0.63138652076166601</v>
       </c>
       <c r="E63" t="n">
-        <v>20.847817779158632</v>
+        <v>19.648667391812818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.54130079547482379</v>
+        <v>0.53372095538777886</v>
       </c>
       <c r="G63" t="n">
-        <v>0.20193188514349525</v>
+        <v>0.19036095039579126</v>
       </c>
       <c r="H63" t="n">
-        <v>5.6079710045467603</v>
+        <v>5.4592609654492046</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.04960050615305326</v>
+        <v>-0.0496659911526557</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.0050505528694229215</v>
+        <v>-0.0018714319737626298</v>
       </c>
       <c r="K63" t="n">
-        <v>0.39834958681618104</v>
+        <v>0.39099528206760686</v>
       </c>
       <c r="L63" t="n">
-        <v>0.68215074604875581</v>
+        <v>0.6230357098722249</v>
       </c>
       <c r="M63" t="n">
-        <v>2.5567969654171003</v>
+        <v>2.3732589070031178</v>
       </c>
       <c r="N63" t="n">
-        <v>3.3110646739238638</v>
+        <v>3.08810466065967</v>
       </c>
       <c r="O63" t="n">
-        <v>12.892921824550525</v>
+        <v>12.249827037260102</v>
       </c>
       <c r="P63" t="n">
-        <v>0.078297994122163414</v>
+        <v>0.07490460188809539</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.191864160545983</v>
+        <v>1.1885240629096596</v>
       </c>
     </row>
     <row r="64">
@@ -3590,46 +3590,46 @@
         <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>1.1931192880052488</v>
+        <v>1.1640891461882255</v>
       </c>
       <c r="E64" t="n">
-        <v>19.735933696493355</v>
+        <v>19.166811185777693</v>
       </c>
       <c r="F64" t="n">
-        <v>4.4179313239786886</v>
+        <v>4.3627054347919678</v>
       </c>
       <c r="G64" t="n">
-        <v>4.324449313060331</v>
+        <v>4.2010113568602829</v>
       </c>
       <c r="H64" t="n">
-        <v>4.6408401747841808</v>
+        <v>4.5723992579599582</v>
       </c>
       <c r="I64" t="n">
-        <v>0.014884366569479345</v>
+        <v>0.0073265035326892424</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0081837831739683918</v>
+        <v>0.0066443066711074231</v>
       </c>
       <c r="K64" t="n">
-        <v>0.81007893775033446</v>
+        <v>0.8039646887509112</v>
       </c>
       <c r="L64" t="n">
-        <v>0.6082796899318651</v>
+        <v>0.57838931713592379</v>
       </c>
       <c r="M64" t="n">
-        <v>2.7735491021754157</v>
+        <v>2.6905274244969939</v>
       </c>
       <c r="N64" t="n">
-        <v>5.6841659928625798</v>
+        <v>5.4912574640634375</v>
       </c>
       <c r="O64" t="n">
-        <v>9.2297419037230561</v>
+        <v>9.0095679052848592</v>
       </c>
       <c r="P64" t="n">
-        <v>0.082739578636144923</v>
+        <v>0.085131525996792121</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.0465361160917959</v>
+        <v>1.0502127319896186</v>
       </c>
     </row>
     <row r="65">
@@ -3643,46 +3643,46 @@
         <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>1.6340824374604226</v>
+        <v>1.5992689069969768</v>
       </c>
       <c r="E65" t="n">
-        <v>19.65423383805723</v>
+        <v>19.230640902284957</v>
       </c>
       <c r="F65" t="n">
-        <v>11.057719454334258</v>
+        <v>10.922252992265122</v>
       </c>
       <c r="G65" t="n">
-        <v>1.2473247126238112</v>
+        <v>1.220912074231328</v>
       </c>
       <c r="H65" t="n">
-        <v>1.3196548398717662</v>
+        <v>1.2625392330637424</v>
       </c>
       <c r="I65" t="n">
-        <v>0.021172407019399441</v>
+        <v>0.013291348194845046</v>
       </c>
       <c r="J65" t="n">
-        <v>0.011619609622657394</v>
+        <v>0.0087782626943129511</v>
       </c>
       <c r="K65" t="n">
-        <v>0.63172099829887385</v>
+        <v>0.62850699820025957</v>
       </c>
       <c r="L65" t="n">
-        <v>0.63693758639953046</v>
+        <v>0.60975122974845097</v>
       </c>
       <c r="M65" t="n">
-        <v>2.6763878796326663</v>
+        <v>2.6185311474046111</v>
       </c>
       <c r="N65" t="n">
-        <v>7.3182445206619509</v>
+        <v>7.1315606053921776</v>
       </c>
       <c r="O65" t="n">
-        <v>7.6215461632041874</v>
+        <v>7.4968373711462153</v>
       </c>
       <c r="P65" t="n">
-        <v>0.077763411815382488</v>
+        <v>0.080121955584777263</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.0288239675691957</v>
+        <v>1.0345787133593187</v>
       </c>
     </row>
     <row r="66">
@@ -3696,46 +3696,46 @@
         <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>0.98721763948083818</v>
+        <v>0.97086962350111239</v>
       </c>
       <c r="E66" t="n">
-        <v>18.184265252190119</v>
+        <v>17.689697848662199</v>
       </c>
       <c r="F66" t="n">
-        <v>8.7545444501128031</v>
+        <v>8.5359065453405929</v>
       </c>
       <c r="G66" t="n">
-        <v>3.2759414990245661</v>
+        <v>3.1845314198848285</v>
       </c>
       <c r="H66" t="n">
-        <v>4.7283342176848144</v>
+        <v>4.6168473259292888</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01882270027642222</v>
+        <v>0.011875689461132252</v>
       </c>
       <c r="J66" t="n">
-        <v>0.012533925366310055</v>
+        <v>0.0093646339448408486</v>
       </c>
       <c r="K66" t="n">
-        <v>0.61928110855518637</v>
+        <v>0.61726187693857526</v>
       </c>
       <c r="L66" t="n">
-        <v>0.67284994432034473</v>
+        <v>0.63870156174117387</v>
       </c>
       <c r="M66" t="n">
-        <v>1.7784929476566849</v>
+        <v>1.7255530920241646</v>
       </c>
       <c r="N66" t="n">
-        <v>5.8912576884129022</v>
+        <v>5.6973034336975585</v>
       </c>
       <c r="O66" t="n">
-        <v>8.6633568071265969</v>
+        <v>8.477927482301574</v>
       </c>
       <c r="P66" t="n">
-        <v>0.072355027806295588</v>
+        <v>0.074042023611826213</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.0257193117168175</v>
+        <v>1.0316848393617346</v>
       </c>
     </row>
     <row r="67">
@@ -3749,46 +3749,46 @@
         <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>1.8991822897247623</v>
+        <v>1.8529108622348869</v>
       </c>
       <c r="E67" t="n">
-        <v>25.779735478902857</v>
+        <v>25.020095932608541</v>
       </c>
       <c r="F67" t="n">
-        <v>8.0941418193102734</v>
+        <v>7.9086891196092779</v>
       </c>
       <c r="G67" t="n">
-        <v>4.6898505706460529</v>
+        <v>4.5491475065978806</v>
       </c>
       <c r="H67" t="n">
-        <v>7.9287961811415215</v>
+        <v>7.7518782018358499</v>
       </c>
       <c r="I67" t="n">
-        <v>0.019477958280936059</v>
+        <v>0.011258190777096761</v>
       </c>
       <c r="J67" t="n">
-        <v>0.011977136866056103</v>
+        <v>0.0090828364456289785</v>
       </c>
       <c r="K67" t="n">
-        <v>0.68249340183243568</v>
+        <v>0.67921964489571851</v>
       </c>
       <c r="L67" t="n">
-        <v>0.92008808950555043</v>
+        <v>0.87663288927250382</v>
       </c>
       <c r="M67" t="n">
-        <v>4.1156522720205304</v>
+        <v>3.9891153727661539</v>
       </c>
       <c r="N67" t="n">
-        <v>5.5455472332273201</v>
+        <v>5.3484304767834647</v>
       </c>
       <c r="O67" t="n">
-        <v>13.260225160157958</v>
+        <v>12.928963284116389</v>
       </c>
       <c r="P67" t="n">
-        <v>0.07936708716884705</v>
+        <v>0.082288325059350576</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.0363573191188682</v>
+        <v>1.0410515102567603</v>
       </c>
     </row>
     <row r="68">
@@ -3802,46 +3802,46 @@
         <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>1.2024085100337527</v>
+        <v>1.1641637283998125</v>
       </c>
       <c r="E68" t="n">
-        <v>19.722938738034301</v>
+        <v>19.052229099696884</v>
       </c>
       <c r="F68" t="n">
-        <v>5.373935189438189</v>
+        <v>5.2637772755222541</v>
       </c>
       <c r="G68" t="n">
-        <v>1.405594553598462</v>
+        <v>1.3572562734571276</v>
       </c>
       <c r="H68" t="n">
-        <v>8.3652824515862871</v>
+        <v>8.140319069837858</v>
       </c>
       <c r="I68" t="n">
-        <v>0.014685849889363266</v>
+        <v>0.0065586694038919082</v>
       </c>
       <c r="J68" t="n">
-        <v>0.010257874488809011</v>
+        <v>0.0075398508354642593</v>
       </c>
       <c r="K68" t="n">
-        <v>0.73394573633720428</v>
+        <v>0.72858351796841037</v>
       </c>
       <c r="L68" t="n">
-        <v>0.63618113322440173</v>
+        <v>0.60523733083584896</v>
       </c>
       <c r="M68" t="n">
-        <v>3.4845104481352354</v>
+        <v>3.3641294972663842</v>
       </c>
       <c r="N68" t="n">
-        <v>3.2631546571150634</v>
+        <v>3.131383688692329</v>
       </c>
       <c r="O68" t="n">
-        <v>10.928432079002825</v>
+        <v>10.595859582129233</v>
       </c>
       <c r="P68" t="n">
-        <v>0.081710521802588254</v>
+        <v>0.084331350160251339</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.042232344057521</v>
+        <v>1.0454483282731493</v>
       </c>
     </row>
     <row r="69">
@@ -3855,46 +3855,46 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>3.8771694712308946</v>
+        <v>3.778437915432924</v>
       </c>
       <c r="E69" t="n">
-        <v>36.366523574031078</v>
+        <v>35.572248594820671</v>
       </c>
       <c r="F69" t="n">
-        <v>17.750639721879445</v>
+        <v>17.571689903792873</v>
       </c>
       <c r="G69" t="n">
-        <v>1.328404752867989</v>
+        <v>1.300180919673539</v>
       </c>
       <c r="H69" t="n">
-        <v>10.468714108166921</v>
+        <v>10.207221407620853</v>
       </c>
       <c r="I69" t="n">
-        <v>0.022097791801737796</v>
+        <v>0.013352831094704724</v>
       </c>
       <c r="J69" t="n">
-        <v>0.016763204471288932</v>
+        <v>0.011843378629587124</v>
       </c>
       <c r="K69" t="n">
-        <v>0.74147651643257795</v>
+        <v>0.73709188171451967</v>
       </c>
       <c r="L69" t="n">
-        <v>0.81241779215256171</v>
+        <v>0.78474173418180493</v>
       </c>
       <c r="M69" t="n">
-        <v>10.785815542782997</v>
+        <v>10.559980757077261</v>
       </c>
       <c r="N69" t="n">
-        <v>7.3289593662452095</v>
+        <v>7.1399598833107421</v>
       </c>
       <c r="O69" t="n">
-        <v>13.865997615034544</v>
+        <v>13.605791291793849</v>
       </c>
       <c r="P69" t="n">
-        <v>0.081240450913343296</v>
+        <v>0.083626468754930322</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.0297988889906664</v>
+        <v>1.0333958154145437</v>
       </c>
     </row>
     <row r="70">
@@ -3908,46 +3908,46 @@
         <v>9</v>
       </c>
       <c r="D70" t="n">
-        <v>9.0877600040117237</v>
+        <v>8.8492703665457917</v>
       </c>
       <c r="E70" t="n">
-        <v>81.476582731686022</v>
+        <v>79.596057472837686</v>
       </c>
       <c r="F70" t="n">
-        <v>60.925339955171737</v>
+        <v>59.852364348271095</v>
       </c>
       <c r="G70" t="n">
-        <v>2.4463967097555481</v>
+        <v>2.3896241283166164</v>
       </c>
       <c r="H70" t="n">
-        <v>10.710003272843471</v>
+        <v>10.438502480217265</v>
       </c>
       <c r="I70" t="n">
-        <v>0.026289565350720065</v>
+        <v>0.016636983076345452</v>
       </c>
       <c r="J70" t="n">
-        <v>0.024824583281842564</v>
+        <v>0.01762740112204329</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8020014423229691</v>
+        <v>0.7987721294405884</v>
       </c>
       <c r="L70" t="n">
-        <v>1.482056970836386</v>
+        <v>1.4338846044184086</v>
       </c>
       <c r="M70" t="n">
-        <v>32.974033359111743</v>
+        <v>32.238132999506547</v>
       </c>
       <c r="N70" t="n">
-        <v>6.4341490071086476</v>
+        <v>6.2562311819997554</v>
       </c>
       <c r="O70" t="n">
-        <v>30.210283902442011</v>
+        <v>29.582306227358032</v>
       </c>
       <c r="P70" t="n">
-        <v>0.074510178365908813</v>
+        <v>0.076942710250108709</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.0261103860945211</v>
+        <v>1.0295546604147743</v>
       </c>
     </row>
     <row r="71">
@@ -3961,46 +3961,46 @@
         <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>0.94930273945927535</v>
+        <v>0.91806464607045102</v>
       </c>
       <c r="E71" t="n">
-        <v>19.875723536619269</v>
+        <v>19.240931699185445</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3103206056729226</v>
+        <v>1.3093721824336866</v>
       </c>
       <c r="G71" t="n">
-        <v>1.1376186080598725</v>
+        <v>1.1029179172443409</v>
       </c>
       <c r="H71" t="n">
-        <v>10.855738097562792</v>
+        <v>10.650300863481331</v>
       </c>
       <c r="I71" t="n">
-        <v>0.011656458341551167</v>
+        <v>0.003469832502608555</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0052110492611453004</v>
+        <v>0.004781161255297265</v>
       </c>
       <c r="K71" t="n">
-        <v>0.66458078030433687</v>
+        <v>0.65651331123588763</v>
       </c>
       <c r="L71" t="n">
-        <v>0.73250845164560729</v>
+        <v>0.69306551238940017</v>
       </c>
       <c r="M71" t="n">
-        <v>2.0541519983293353</v>
+        <v>1.9890423165146045</v>
       </c>
       <c r="N71" t="n">
-        <v>6.8819355165926144</v>
+        <v>6.6274387252785099</v>
       </c>
       <c r="O71" t="n">
-        <v>8.8730465631123749</v>
+        <v>8.6403741891241665</v>
       </c>
       <c r="P71" t="n">
-        <v>0.083707891889109293</v>
+        <v>0.08612757763420989</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.061103610168187</v>
+        <v>1.0637588353095466</v>
       </c>
     </row>
     <row r="72">
@@ -4014,46 +4014,46 @@
         <v>9</v>
       </c>
       <c r="D72" t="n">
-        <v>0.85667796372172689</v>
+        <v>0.84618587361081632</v>
       </c>
       <c r="E72" t="n">
-        <v>15.437254911067523</v>
+        <v>15.099603069613179</v>
       </c>
       <c r="F72" t="n">
-        <v>1.5004819804622391</v>
+        <v>1.4967403048982642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.75754668529538893</v>
+        <v>0.74196015511376356</v>
       </c>
       <c r="H72" t="n">
-        <v>8.0555402044352782</v>
+        <v>7.8879669634079344</v>
       </c>
       <c r="I72" t="n">
-        <v>0.013075242071765251</v>
+        <v>0.0074761217256874308</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0080230511544685176</v>
+        <v>0.0065880365756565999</v>
       </c>
       <c r="K72" t="n">
-        <v>0.78663849390331686</v>
+        <v>0.78033710325800321</v>
       </c>
       <c r="L72" t="n">
-        <v>0.35160609632582474</v>
+        <v>0.33603179340152295</v>
       </c>
       <c r="M72" t="n">
-        <v>0.97161157690649058</v>
+        <v>0.94810050286610592</v>
       </c>
       <c r="N72" t="n">
-        <v>6.927579111171549</v>
+        <v>6.7529315474520351</v>
       </c>
       <c r="O72" t="n">
-        <v>6.0268141280744132</v>
+        <v>5.9282101990701204</v>
       </c>
       <c r="P72" t="n">
-        <v>0.036202305223967612</v>
+        <v>0.036433212557189038</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.0405768390944836</v>
+        <v>1.0470920976950648</v>
       </c>
     </row>
     <row r="73">
@@ -4067,46 +4067,46 @@
         <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>1.2818322220406413</v>
+        <v>1.2521432269777875</v>
       </c>
       <c r="E73" t="n">
-        <v>21.784556194939924</v>
+        <v>21.375880179684682</v>
       </c>
       <c r="F73" t="n">
-        <v>14.582771622821658</v>
+        <v>14.437009522095622</v>
       </c>
       <c r="G73" t="n">
-        <v>0.097028139570153701</v>
+        <v>0.09526850800465736</v>
       </c>
       <c r="H73" t="n">
-        <v>2.3869687023570147</v>
+        <v>2.3485623753800993</v>
       </c>
       <c r="I73" t="n">
-        <v>0.020679337327888559</v>
+        <v>0.012219691452090909</v>
       </c>
       <c r="J73" t="n">
-        <v>0.010462540738567047</v>
+        <v>0.0079085608767788945</v>
       </c>
       <c r="K73" t="n">
-        <v>0.81983997692784294</v>
+        <v>0.81594285784990961</v>
       </c>
       <c r="L73" t="n">
-        <v>0.72931188544762648</v>
+        <v>0.70018462599294851</v>
       </c>
       <c r="M73" t="n">
-        <v>1.866533098368538</v>
+        <v>1.8335680945212329</v>
       </c>
       <c r="N73" t="n">
-        <v>9.7075001303882242</v>
+        <v>9.4916517494716235</v>
       </c>
       <c r="O73" t="n">
-        <v>7.8940664168616772</v>
+        <v>7.7883060639062869</v>
       </c>
       <c r="P73" t="n">
-        <v>0.078117618605154621</v>
+        <v>0.080922296322394824</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.025741810077158</v>
+        <v>1.0322014795980747</v>
       </c>
     </row>
     <row r="74">
@@ -4120,46 +4120,46 @@
         <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7630207354464279</v>
+        <v>0.74722044831189915</v>
       </c>
       <c r="E74" t="n">
-        <v>16.327904555361329</v>
+        <v>16.037733409319696</v>
       </c>
       <c r="F74" t="n">
-        <v>9.9767629153776323</v>
+        <v>9.9034441531383219</v>
       </c>
       <c r="G74" t="n">
-        <v>2.9720452682238543</v>
+        <v>2.921392068496564</v>
       </c>
       <c r="H74" t="n">
-        <v>1.5659483091524584</v>
+        <v>1.5351565297514564</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0095523601123180726</v>
+        <v>0.0017075092889419601</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0080340409990443638</v>
+        <v>0.005934767014447547</v>
       </c>
       <c r="K74" t="n">
-        <v>0.71272903865488302</v>
+        <v>0.70904815827284295</v>
       </c>
       <c r="L74" t="n">
-        <v>0.40986383243879582</v>
+        <v>0.39217529775236115</v>
       </c>
       <c r="M74" t="n">
-        <v>1.0940499091065188</v>
+        <v>1.0754067419491624</v>
       </c>
       <c r="N74" t="n">
-        <v>8.5124407895145016</v>
+        <v>8.3345087445420365</v>
       </c>
       <c r="O74" t="n">
-        <v>5.1032325209192839</v>
+        <v>5.0454385320666084</v>
       </c>
       <c r="P74" t="n">
-        <v>0.077526632977026</v>
+        <v>0.079982925086310094</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.0291450504292721</v>
+        <v>1.0362201198362035</v>
       </c>
     </row>
     <row r="75">
@@ -4173,46 +4173,46 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>1.248984760069362</v>
+        <v>1.2244183807078384</v>
       </c>
       <c r="E75" t="n">
-        <v>19.129485888119788</v>
+        <v>18.839652463642871</v>
       </c>
       <c r="F75" t="n">
-        <v>16.174685701779595</v>
+        <v>16.000763732184712</v>
       </c>
       <c r="G75" t="n">
-        <v>0.12440432851779386</v>
+        <v>0.12258797371017803</v>
       </c>
       <c r="H75" t="n">
-        <v>1.3044651662974391</v>
+        <v>1.2869056145487208</v>
       </c>
       <c r="I75" t="n">
-        <v>0.022889879594127166</v>
+        <v>0.014508419637472883</v>
       </c>
       <c r="J75" t="n">
-        <v>0.010317117992659277</v>
+        <v>0.0077887781043492347</v>
       </c>
       <c r="K75" t="n">
-        <v>0.72863967203507995</v>
+        <v>0.72637115759340143</v>
       </c>
       <c r="L75" t="n">
-        <v>0.56948535486579588</v>
+        <v>0.54576216618151985</v>
       </c>
       <c r="M75" t="n">
-        <v>1.4408729742443753</v>
+        <v>1.4206688133106156</v>
       </c>
       <c r="N75" t="n">
-        <v>10.299802101121006</v>
+        <v>10.112947729699291</v>
       </c>
       <c r="O75" t="n">
-        <v>5.4184946661386864</v>
+        <v>5.3729000344587385</v>
       </c>
       <c r="P75" t="n">
-        <v>0.078590276142288459</v>
+        <v>0.081505624025303661</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.0163121258657288</v>
+        <v>1.024884530135914</v>
       </c>
     </row>
     <row r="76">
@@ -4226,46 +4226,46 @@
         <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>0.63203522968530912</v>
+        <v>0.63179132158011742</v>
       </c>
       <c r="E76" t="n">
-        <v>12.054436106855741</v>
+        <v>11.660320035640627</v>
       </c>
       <c r="F76" t="n">
-        <v>5.6597709753782688</v>
+        <v>5.5437712034110609</v>
       </c>
       <c r="G76" t="n">
-        <v>0.95230384940074753</v>
+        <v>0.92080632514394278</v>
       </c>
       <c r="H76" t="n">
-        <v>3.1770702585795543</v>
+        <v>3.0801944304088917</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.02100601358263559</v>
+        <v>-0.044426888715451432</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0035660364887036416</v>
+        <v>0.0018120943104008313</v>
       </c>
       <c r="K76" t="n">
-        <v>0.64547993832929484</v>
+        <v>0.64106975099607233</v>
       </c>
       <c r="L76" t="n">
-        <v>0.35068629405225443</v>
+        <v>0.33250048531772758</v>
       </c>
       <c r="M76" t="n">
-        <v>1.5051842979558305</v>
+        <v>1.4444053292973971</v>
       </c>
       <c r="N76" t="n">
-        <v>2.2255771817232217</v>
+        <v>2.1390628341170146</v>
       </c>
       <c r="O76" t="n">
-        <v>7.2108230816856276</v>
+        <v>7.0089432413145651</v>
       </c>
       <c r="P76" t="n">
-        <v>0.076102611776588655</v>
+        <v>0.078062786875840007</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.0512692180343435</v>
+        <v>1.1128349789373961</v>
       </c>
     </row>
     <row r="77">
@@ -4279,46 +4279,46 @@
         <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>1.0115754146852223</v>
+        <v>1.0024381707170409</v>
       </c>
       <c r="E77" t="n">
-        <v>14.727026280428097</v>
+        <v>14.31318456086745</v>
       </c>
       <c r="F77" t="n">
-        <v>6.4976213973741626</v>
+        <v>6.3568092128522071</v>
       </c>
       <c r="G77" t="n">
-        <v>0.21590173416219011</v>
+        <v>0.20972161351169993</v>
       </c>
       <c r="H77" t="n">
-        <v>4.0768866751409716</v>
+        <v>3.9765954139622481</v>
       </c>
       <c r="I77" t="n">
-        <v>0.018916951192721455</v>
+        <v>0.0138273282402802</v>
       </c>
       <c r="J77" t="n">
-        <v>0.011206869134904275</v>
+        <v>0.0088908778475226859</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6615356061059281</v>
+        <v>0.65841354287102927</v>
       </c>
       <c r="L77" t="n">
-        <v>0.40468790292172607</v>
+        <v>0.38339128754701968</v>
       </c>
       <c r="M77" t="n">
-        <v>1.523392745322053</v>
+        <v>1.4736133914053564</v>
       </c>
       <c r="N77" t="n">
-        <v>4.6998999441845823</v>
+        <v>4.5415366322848545</v>
       </c>
       <c r="O77" t="n">
-        <v>7.0776827846893173</v>
+        <v>6.9215159744942083</v>
       </c>
       <c r="P77" t="n">
-        <v>0.04834009020669567</v>
+        <v>0.048549749447687501</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.0307980125864058</v>
+        <v>1.0360524818486827</v>
       </c>
     </row>
     <row r="78">
@@ -4332,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>1.0498791060320292</v>
+        <v>1.033378050970416</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -4385,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>2.3879128550923605</v>
+        <v>2.3165986621412409</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -4438,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>2.1750236995574554</v>
+        <v>2.123832046009154</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -4491,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>1.3959914628605363</v>
+        <v>1.2666430629354732</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -4544,7 +4544,7 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>0.60011618561456559</v>
+        <v>0.60002808340761105</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -4597,7 +4597,7 @@
         <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2108781128490351</v>
+        <v>1.1726178494301387</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -4650,7 +4650,7 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>1.668679895929587</v>
+        <v>1.6205253468970628</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -4703,7 +4703,7 @@
         <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>1.005799741216383</v>
+        <v>0.98239936965705799</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
@@ -4756,7 +4756,7 @@
         <v>10</v>
       </c>
       <c r="D86" t="n">
-        <v>1.9361744831319139</v>
+        <v>1.8737712862148821</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -4809,7 +4809,7 @@
         <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>1.2200669009178013</v>
+        <v>1.1717990934263891</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -4862,7 +4862,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>3.9628463549862087</v>
+        <v>3.828890758719528</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -4915,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>9.3266732645288499</v>
+        <v>8.9964955278720193</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
@@ -4968,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.96036824729530279</v>
+        <v>0.92125017661888209</v>
       </c>
       <c r="E90" t="s">
         <v>19</v>
@@ -5021,7 +5021,7 @@
         <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8678792354749354</v>
+        <v>0.85251206220448794</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
@@ -5074,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>1.3083396629579767</v>
+        <v>1.2674440308652815</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -5127,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>0.77030938428457796</v>
+        <v>0.7484963341682791</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
@@ -5180,7 +5180,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>1.2775738708422495</v>
+        <v>1.2421827563869827</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
@@ -5233,7 +5233,7 @@
         <v>10</v>
       </c>
       <c r="D95" t="n">
-        <v>0.61875868906583531</v>
+        <v>0.60372279884488955</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -5286,7 +5286,7 @@
         <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0307113374325796</v>
+        <v>1.0162992123441315</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
